--- a/datatables/pkdata.xlsx
+++ b/datatables/pkdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwambaug\git\httk-datatables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwambaug\git\httk-dev\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDE74C9-4EC4-4609-9BA7-A8D9BFAABFB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38A2BC3-BD4D-430E-B9EB-12EC2EFFF231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="735" windowWidth="21600" windowHeight="11835" tabRatio="884" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="1740" windowWidth="16560" windowHeight="8970" tabRatio="925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic PK" sheetId="7" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="385">
   <si>
     <t>Tissue</t>
   </si>
@@ -519,30 +519,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <r>
-      <t>Robertshaw, D., Temperature Regulation and Thermal Environment, in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Dukes' Physiology of Domestic Animals,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 12th ed., Reece W.O., Ed. Copyright 2004 by Cornell University.</t>
-    </r>
   </si>
   <si>
     <t>Volume (L/kg)</t>
@@ -1302,54 +1278,6 @@
   </si>
   <si>
     <r>
-      <t>Stammers, Arthur Dighton. "The blood count and body temperature in normal rats." </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The Journal of physiology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 61.3 (1926): 329.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Gordon, Christopher J. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Temperature regulation in laboratory rodents</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. Cambridge University Press, 1993.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Schmitt, Walter. "General approach for the calculation of tissue to plasma partition coefficients." </t>
     </r>
     <r>
@@ -1649,9 +1577,6 @@
     <t>Monkey</t>
   </si>
   <si>
-    <t>Gauvin, David V. "Electrocardiogram, hemodynamics, and core body temperatures of the normal freely moving cynomolgus monkey by remote radiotelemetry", Journal of Pharmacological and Toxicological Methods</t>
-  </si>
-  <si>
     <t>RabbitRaw</t>
   </si>
   <si>
@@ -1828,6 +1753,102 @@
   </si>
   <si>
     <t>Sun and Sethu (2017)</t>
+  </si>
+  <si>
+    <t>Small Intestine Mean Residence Time</t>
+  </si>
+  <si>
+    <t>MRT Reference: Grandoni et al. (2019)</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>Small Intestine Radius</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>Human Radius Reference: Yu et al. (1999)</t>
+  </si>
+  <si>
+    <t>Rat Radius Reference: Griffin and O’Driscoll (2008)</t>
+  </si>
+  <si>
+    <r>
+      <t>Rat temp: Stammers, Arthur Dighton. "The blood count and body temperature in normal rats." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The Journal of physiology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 61.3 (1926): 329.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dog temp: Robertshaw, D., Temperature Regulation and Thermal Environment, in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dukes' Physiology of Domestic Animals,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 12th ed., Reece W.O., Ed. Copyright 2004 by Cornell University.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mouse temp: Gordon, Christopher J. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Temperature regulation in laboratory rodents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Cambridge University Press, 1993.</t>
+    </r>
+  </si>
+  <si>
+    <t>Monkey temp: Gauvin, David V. "Electrocardiogram, hemodynamics, and core body temperatures of the normal freely moving cynomolgus monkey by remote radiotelemetry", Journal of Pharmacological and Toxicological Methods</t>
   </si>
 </sst>
 </file>
@@ -1959,7 +1980,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1978,8 +1999,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor theme="7" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2005,6 +2032,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2013,7 +2064,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2081,6 +2132,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2119,8 +2173,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB35B52E-DAB3-4133-BB0A-E817A59A59D5}" name="Table1" displayName="Table1" ref="A1:H17" totalsRowShown="0">
-  <autoFilter ref="A1:H17" xr:uid="{48C012F2-270A-4595-A0D1-2F8944A01E8D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB35B52E-DAB3-4133-BB0A-E817A59A59D5}" name="Table1" displayName="Table1" ref="A1:H19" totalsRowShown="0">
+  <autoFilter ref="A1:H19" xr:uid="{48C012F2-270A-4595-A0D1-2F8944A01E8D}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{36311C77-E515-44E1-B849-6BDC951DE56C}" name="Parameter"/>
     <tableColumn id="2" xr3:uid="{7776CC9B-A6DC-4860-ACD5-A0A0A5E9CE64}" name="Units"/>
@@ -2136,9 +2190,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2176,9 +2230,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2211,26 +2265,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2263,26 +2300,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2456,20 +2476,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="3" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.26953125" customWidth="1"/>
+    <col min="3" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -2492,15 +2512,15 @@
         <v>104</v>
       </c>
       <c r="H1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="4">
         <f>14.5/C5</f>
@@ -2526,12 +2546,12 @@
         <v>693</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="4">
         <f>1/C5</f>
@@ -2557,7 +2577,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -2588,7 +2608,7 @@
         <v>324.78975528124914</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -2614,7 +2634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -2645,7 +2665,7 @@
         <v>8.8000000000000009E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -2676,7 +2696,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -2707,7 +2727,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -2733,7 +2753,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -2764,7 +2784,7 @@
         <v>0.15083333333333332</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -2795,7 +2815,7 @@
         <v>4.0064102564102561E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -2826,7 +2846,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -2853,12 +2873,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C14" s="4">
         <f xml:space="preserve"> (0.003+0.3*0.0021)/(0.003 + 0.0021+0.00088) * 0.006/(0.006+0.06+0.96)</f>
@@ -2883,12 +2903,12 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C15" s="4">
         <f xml:space="preserve"> 0.06/ (0.928+0.06+0.006)</f>
@@ -2915,12 +2935,12 @@
         <v>6.95134061569017E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B16" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C16" s="4">
         <v>24.75</v>
@@ -2941,12 +2961,12 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C17" s="4">
         <v>0.33</v>
@@ -2967,54 +2987,107 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="35">
+        <v>88</v>
+      </c>
+      <c r="E18" s="35">
+        <v>109</v>
+      </c>
+      <c r="F18" s="35">
+        <v>199.2</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="B19" t="s">
+        <v>378</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="25" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="25" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="25" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="25" t="s">
-        <v>340</v>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="25" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -3035,13 +3108,13 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B1" s="32" t="s">
         <v>57</v>
       </c>
@@ -3057,7 +3130,7 @@
       <c r="H1" s="32"/>
       <c r="I1" s="32"/>
     </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>54</v>
       </c>
@@ -3086,7 +3159,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -3127,7 +3200,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3168,7 +3241,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -3209,7 +3282,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -3250,7 +3323,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -3309,12 +3382,12 @@
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B1" s="32" t="s">
         <v>57</v>
       </c>
@@ -3330,7 +3403,7 @@
       <c r="H1" s="32"/>
       <c r="I1" s="32"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>54</v>
       </c>
@@ -3359,7 +3432,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>TissueComp!A3</f>
         <v>Adipose</v>
@@ -3404,7 +3477,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>TissueComp!A4</f>
         <v>Bone</v>
@@ -3449,7 +3522,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>TissueComp!A5</f>
         <v>Brain</v>
@@ -3494,7 +3567,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>TissueComp!A6</f>
         <v>Gut</v>
@@ -3539,7 +3612,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>TissueComp!A7</f>
         <v>Heart</v>
@@ -3584,7 +3657,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>TissueComp!A8</f>
         <v>Kidney</v>
@@ -3629,7 +3702,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>TissueComp!A9</f>
         <v>Liver</v>
@@ -3674,7 +3747,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>TissueComp!A10</f>
         <v>Lung</v>
@@ -3719,7 +3792,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>TissueComp!A11</f>
         <v>Muscle</v>
@@ -3764,7 +3837,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>TissueComp!A12</f>
         <v>Skin</v>
@@ -3809,7 +3882,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>TissueComp!A13</f>
         <v>Spleen</v>
@@ -3854,7 +3927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="e">
         <f>SUM(B3:B13)/SUM(VolumeFlow!#REF!)</f>
         <v>#REF!</v>
@@ -3892,7 +3965,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>TissueComp!A3</f>
         <v>Adipose</v>
@@ -3937,7 +4010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>TissueComp!A4</f>
         <v>Bone</v>
@@ -3982,7 +4055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>TissueComp!A5</f>
         <v>Brain</v>
@@ -4027,7 +4100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>TissueComp!A6</f>
         <v>Gut</v>
@@ -4072,7 +4145,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>TissueComp!A7</f>
         <v>Heart</v>
@@ -4117,7 +4190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>TissueComp!A8</f>
         <v>Kidney</v>
@@ -4162,7 +4235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>TissueComp!A9</f>
         <v>Liver</v>
@@ -4207,7 +4280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>TissueComp!A10</f>
         <v>Lung</v>
@@ -4252,7 +4325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>TissueComp!A11</f>
         <v>Muscle</v>
@@ -4297,7 +4370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>TissueComp!A12</f>
         <v>Skin</v>
@@ -4342,7 +4415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>TissueComp!A13</f>
         <v>Spleen</v>
@@ -4387,7 +4460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="e">
         <f>SUM(B15:B25)/SUM(VolumeFlow!#REF!)</f>
         <v>#REF!</v>
@@ -4425,7 +4498,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>TissueComp!A3</f>
         <v>Adipose</v>
@@ -4470,7 +4543,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>TissueComp!A4</f>
         <v>Bone</v>
@@ -4515,7 +4588,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>TissueComp!A5</f>
         <v>Brain</v>
@@ -4560,7 +4633,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>TissueComp!A6</f>
         <v>Gut</v>
@@ -4605,7 +4678,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>TissueComp!A7</f>
         <v>Heart</v>
@@ -4650,7 +4723,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>TissueComp!A8</f>
         <v>Kidney</v>
@@ -4695,7 +4768,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>TissueComp!A9</f>
         <v>Liver</v>
@@ -4740,7 +4813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>TissueComp!A10</f>
         <v>Lung</v>
@@ -4785,7 +4858,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>TissueComp!A11</f>
         <v>Muscle</v>
@@ -4830,7 +4903,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>TissueComp!A12</f>
         <v>Skin</v>
@@ -4875,7 +4948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>TissueComp!A13</f>
         <v>Spleen</v>
@@ -4920,7 +4993,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="e">
         <f>SUM(B27:B37)/SUM(VolumeFlow!#REF!)</f>
         <v>#REF!</v>
@@ -4958,7 +5031,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>TissueComp!A3</f>
         <v>Adipose</v>
@@ -5003,7 +5076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>TissueComp!A4</f>
         <v>Bone</v>
@@ -5048,7 +5121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>TissueComp!A5</f>
         <v>Brain</v>
@@ -5093,7 +5166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>TissueComp!A6</f>
         <v>Gut</v>
@@ -5138,7 +5211,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>TissueComp!A7</f>
         <v>Heart</v>
@@ -5183,7 +5256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>TissueComp!A8</f>
         <v>Kidney</v>
@@ -5228,7 +5301,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>TissueComp!A9</f>
         <v>Liver</v>
@@ -5273,7 +5346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>TissueComp!A10</f>
         <v>Lung</v>
@@ -5318,7 +5391,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>TissueComp!A11</f>
         <v>Muscle</v>
@@ -5363,7 +5436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>TissueComp!A12</f>
         <v>Skin</v>
@@ -5408,7 +5481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>TissueComp!A13</f>
         <v>Spleen</v>
@@ -5453,7 +5526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="e">
         <f>SUM(B39:B49)/SUM(VolumeFlow!#REF!)</f>
         <v>#REF!</v>
@@ -5491,7 +5564,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f>TissueComp!A3</f>
         <v>Adipose</v>
@@ -5536,7 +5609,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f>TissueComp!A4</f>
         <v>Bone</v>
@@ -5581,7 +5654,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>TissueComp!A5</f>
         <v>Brain</v>
@@ -5626,7 +5699,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>TissueComp!A6</f>
         <v>Gut</v>
@@ -5671,7 +5744,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>TissueComp!A7</f>
         <v>Heart</v>
@@ -5716,7 +5789,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>TissueComp!A8</f>
         <v>Kidney</v>
@@ -5761,7 +5834,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>TissueComp!A9</f>
         <v>Liver</v>
@@ -5806,7 +5879,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>TissueComp!A10</f>
         <v>Lung</v>
@@ -5851,7 +5924,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>TissueComp!A11</f>
         <v>Muscle</v>
@@ -5896,7 +5969,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>TissueComp!A12</f>
         <v>Skin</v>
@@ -5941,7 +6014,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>TissueComp!A13</f>
         <v>Spleen</v>
@@ -5986,7 +6059,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B62" s="2" t="e">
         <f>SUM(B51:B61)/SUM(VolumeFlow!#REF!)</f>
         <v>#REF!</v>
@@ -6043,35 +6116,35 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="1" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="28.453125" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>107</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
@@ -6083,14 +6156,14 @@
         <v>0.20862445414847144</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E2" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A2,Flows!$A$3:$A$21,0),MATCH($B2,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A2,Flows!$A$3:$A$21,0),MATCH($B2,Flows!$B$2:$E$2,0)))</f>
         <v>10.743599688785142</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -6099,7 +6172,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
@@ -6111,14 +6184,14 @@
         <v>7.2310597961656342E-2</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E3" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A3,Flows!$A$3:$A$21,0),MATCH($B3,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A3,Flows!$A$3:$A$21,0),MATCH($B3,Flows!$B$2:$E$2,0)))</f>
         <v>9.7188255646240975</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -6127,7 +6200,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
@@ -6139,14 +6212,14 @@
         <v>1.9314340898116854E-2</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E4" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A4,Flows!$A$3:$A$21,0),MATCH($B4,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A4,Flows!$A$3:$A$21,0),MATCH($B4,Flows!$B$2:$E$2,0)))</f>
         <v>28.925076085190767</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -6155,7 +6228,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>45</v>
       </c>
@@ -6167,14 +6240,14 @@
         <v>1.5802847456629968E-2</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E5" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A5,Flows!$A$3:$A$21,0),MATCH($B5,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A5,Flows!$A$3:$A$21,0),MATCH($B5,Flows!$B$2:$E$2,0)))</f>
         <v>47.519767854241969</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -6183,7 +6256,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>8</v>
       </c>
@@ -6195,14 +6268,14 @@
         <v>4.5631067961165043E-3</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E6" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A6,Flows!$A$3:$A$21,0),MATCH($B6,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A6,Flows!$A$3:$A$21,0),MATCH($B6,Flows!$B$2:$E$2,0)))</f>
         <v>9.9171689434939783</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -6211,7 +6284,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
         <v>38</v>
       </c>
@@ -6223,14 +6296,14 @@
         <v>4.1904761904761906E-3</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E7" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A7,Flows!$A$3:$A$21,0),MATCH($B7,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A7,Flows!$A$3:$A$21,0),MATCH($B7,Flows!$B$2:$E$2,0)))</f>
         <v>51.238706208052214</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -6239,7 +6312,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>10</v>
       </c>
@@ -6251,14 +6324,14 @@
         <v>2.4476190476190471E-2</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E8" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A8,Flows!$A$3:$A$21,0),MATCH($B8,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A8,Flows!$A$3:$A$21,0),MATCH($B8,Flows!$B$2:$E$2,0)))</f>
         <v>59.91622903360944</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -6267,7 +6340,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>37</v>
       </c>
@@ -6279,14 +6352,14 @@
         <v>7.234650166587339E-3</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E9" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A9,Flows!$A$3:$A$21,0),MATCH($B9,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A9,Flows!$A$3:$A$21,0),MATCH($B9,Flows!$B$2:$E$2,0)))</f>
         <v>5.7850152170381541</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -6295,7 +6368,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
@@ -6307,14 +6380,14 @@
         <v>0.38424591738712782</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E10" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A10,Flows!$A$3:$A$21,0),MATCH($B10,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A10,Flows!$A$3:$A$21,0),MATCH($B10,Flows!$B$2:$E$2,0)))</f>
         <v>30.991152948418677</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -6323,7 +6396,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>13</v>
       </c>
@@ -6335,14 +6408,14 @@
         <v>3.3204899288913951E-2</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E11" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A11,Flows!$A$3:$A$21,0),MATCH($B11,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A11,Flows!$A$3:$A$21,0),MATCH($B11,Flows!$B$2:$E$2,0)))</f>
         <v>12.396461179367471</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -6351,7 +6424,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
         <v>14</v>
       </c>
@@ -6363,14 +6436,14 @@
         <v>2.4667931688804553E-3</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E12" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A12,Flows!$A$3:$A$21,0),MATCH($B12,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A12,Flows!$A$3:$A$21,0),MATCH($B12,Flows!$B$2:$E$2,0)))</f>
         <v>3.1817583693709843</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -6379,7 +6452,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
         <v>15</v>
       </c>
@@ -6390,13 +6463,13 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E13" s="22">
         <v>3.7</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -6405,7 +6478,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
         <v>30</v>
       </c>
@@ -6417,14 +6490,14 @@
         <v>5.1820372533547543E-2</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E14" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A14,Flows!$A$3:$A$21,0),MATCH($B14,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A14,Flows!$A$3:$A$21,0),MATCH($B14,Flows!$B$2:$E$2,0)))</f>
         <v>4.1900038786262614</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -6433,7 +6506,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
         <v>3</v>
       </c>
@@ -6445,14 +6518,14 @@
         <v>7.2598253275109076E-2</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E15" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A15,Flows!$A$3:$A$21,0),MATCH($B15,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A15,Flows!$A$3:$A$21,0),MATCH($B15,Flows!$B$2:$E$2,0)))</f>
         <v>1.131370849898476</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -6461,7 +6534,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
         <v>5</v>
       </c>
@@ -6473,14 +6546,14 @@
         <v>3.6939633668305896E-2</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E16" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A16,Flows!$A$3:$A$21,0),MATCH($B16,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A16,Flows!$A$3:$A$21,0),MATCH($B16,Flows!$B$2:$E$2,0)))</f>
         <v>25.535040082208603</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -6489,7 +6562,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
         <v>6</v>
       </c>
@@ -6501,14 +6574,14 @@
         <v>5.5045871559633031E-3</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E17" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A17,Flows!$A$3:$A$21,0),MATCH($B17,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A17,Flows!$A$3:$A$21,0),MATCH($B17,Flows!$B$2:$E$2,0)))</f>
         <v>3.676955262170047</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -6517,7 +6590,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
         <v>45</v>
       </c>
@@ -6529,14 +6602,14 @@
         <v>2.5852334412265577E-2</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E18" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A18,Flows!$A$3:$A$21,0),MATCH($B18,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A18,Flows!$A$3:$A$21,0),MATCH($B18,Flows!$B$2:$E$2,0)))</f>
         <v>27.718585822512662</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -6545,7 +6618,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
         <v>8</v>
       </c>
@@ -6557,14 +6630,14 @@
         <v>3.2038834951456309E-3</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E19" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A19,Flows!$A$3:$A$21,0),MATCH($B19,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A19,Flows!$A$3:$A$21,0),MATCH($B19,Flows!$B$2:$E$2,0)))</f>
         <v>11.030865786510139</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -6573,7 +6646,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
         <v>38</v>
       </c>
@@ -6585,14 +6658,14 @@
         <v>6.9523809523809521E-3</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E20" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A20,Flows!$A$3:$A$21,0),MATCH($B20,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A20,Flows!$A$3:$A$21,0),MATCH($B20,Flows!$B$2:$E$2,0)))</f>
         <v>26.021529547664947</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -6601,7 +6674,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
         <v>10</v>
       </c>
@@ -6613,14 +6686,14 @@
         <v>3.4857142857142857E-2</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E21" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A21,Flows!$A$3:$A$21,0),MATCH($B21,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A21,Flows!$A$3:$A$21,0),MATCH($B21,Flows!$B$2:$E$2,0)))</f>
         <v>33.375440072005041</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -6629,7 +6702,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
         <v>37</v>
       </c>
@@ -6641,14 +6714,14 @@
         <v>4.7596382674916704E-3</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E22" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A22,Flows!$A$3:$A$21,0),MATCH($B22,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A22,Flows!$A$3:$A$21,0),MATCH($B22,Flows!$B$2:$E$2,0)))</f>
         <v>4.3953757518555792</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -6657,7 +6730,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
         <v>11</v>
       </c>
@@ -6669,14 +6742,14 @@
         <v>0.38837656099903939</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E23" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A23,Flows!$A$3:$A$21,0),MATCH($B23,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A23,Flows!$A$3:$A$21,0),MATCH($B23,Flows!$B$2:$E$2,0)))</f>
         <v>21.213203435596427</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -6685,7 +6758,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
         <v>13</v>
       </c>
@@ -6697,14 +6770,14 @@
         <v>0.17032054810459099</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E24" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A24,Flows!$A$3:$A$21,0),MATCH($B24,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A24,Flows!$A$3:$A$21,0),MATCH($B24,Flows!$B$2:$E$2,0)))</f>
         <v>16.404877323527902</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -6713,7 +6786,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
         <v>14</v>
       </c>
@@ -6725,14 +6798,14 @@
         <v>1.8975332068311196E-3</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E25" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A25,Flows!$A$3:$A$21,0),MATCH($B25,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A25,Flows!$A$3:$A$21,0),MATCH($B25,Flows!$B$2:$E$2,0)))</f>
         <v>2.8779245994292482</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -6741,7 +6814,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
         <v>30</v>
       </c>
@@ -6753,17 +6826,17 @@
         <v>5.2399992921151606E-2</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E26" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A26,Flows!$A$3:$A$21,0),MATCH($B26,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A26,Flows!$A$3:$A$21,0),MATCH($B26,Flows!$B$2:$E$2,0)))</f>
         <v>59.664255982958501</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
         <v>3</v>
       </c>
@@ -6775,17 +6848,17 @@
         <v>7.3169652284369002E-2</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E27" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A27,Flows!$A$3:$A$21,0),MATCH($B27,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A27,Flows!$A$3:$A$21,0),MATCH($B27,Flows!$B$2:$E$2,0)))</f>
         <v>4.0614836065401096</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
         <v>5</v>
       </c>
@@ -6797,17 +6870,17 @@
         <v>5.429620126861949E-2</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E28" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A28,Flows!$A$3:$A$21,0),MATCH($B28,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A28,Flows!$A$3:$A$21,0),MATCH($B28,Flows!$B$2:$E$2,0)))</f>
         <v>8.766383654772504</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
         <v>6</v>
       </c>
@@ -6819,17 +6892,17 @@
         <v>1.5934331240946405E-2</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E29" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A29,Flows!$A$3:$A$21,0),MATCH($B29,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A29,Flows!$A$3:$A$21,0),MATCH($B29,Flows!$B$2:$E$2,0)))</f>
         <v>4.963996082874039</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="20" t="s">
         <v>45</v>
       </c>
@@ -6841,17 +6914,17 @@
         <v>4.0408654780552319E-2</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E30" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A30,Flows!$A$3:$A$21,0),MATCH($B30,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A30,Flows!$A$3:$A$21,0),MATCH($B30,Flows!$B$2:$E$2,0)))</f>
         <v>27.264372424876349</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="20" t="s">
         <v>8</v>
       </c>
@@ -6863,17 +6936,17 @@
         <v>4.8543689320388345E-3</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E31" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A31,Flows!$A$3:$A$21,0),MATCH($B31,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A31,Flows!$A$3:$A$21,0),MATCH($B31,Flows!$B$2:$E$2,0)))</f>
         <v>5.2648443303209511</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="20" t="s">
         <v>38</v>
       </c>
@@ -6885,17 +6958,17 @@
         <v>1.5904761904761904E-2</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E32" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A32,Flows!$A$3:$A$21,0),MATCH($B32,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A32,Flows!$A$3:$A$21,0),MATCH($B32,Flows!$B$2:$E$2,0)))</f>
         <v>24.443920105061554</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="20" t="s">
         <v>10</v>
       </c>
@@ -6907,17 +6980,17 @@
         <v>5.228571428571429E-2</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E33" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A33,Flows!$A$3:$A$21,0),MATCH($B33,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A33,Flows!$A$3:$A$21,0),MATCH($B33,Flows!$B$2:$E$2,0)))</f>
         <v>33.845427837777535</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="20" t="s">
         <v>37</v>
       </c>
@@ -6929,17 +7002,17 @@
         <v>6.9490718705378391E-3</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E34" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A34,Flows!$A$3:$A$21,0),MATCH($B34,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A34,Flows!$A$3:$A$21,0),MATCH($B34,Flows!$B$2:$E$2,0)))</f>
         <v>0.75212061861727864</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="20" t="s">
         <v>11</v>
       </c>
@@ -6951,17 +7024,17 @@
         <v>0.36887608069164268</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E35" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A35,Flows!$A$3:$A$21,0),MATCH($B35,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A35,Flows!$A$3:$A$21,0),MATCH($B35,Flows!$B$2:$E$2,0)))</f>
         <v>17.110744073543088</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="20" t="s">
         <v>13</v>
       </c>
@@ -6973,17 +7046,17 @@
         <v>0.14794527904198049</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E36" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A36,Flows!$A$3:$A$21,0),MATCH($B36,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A36,Flows!$A$3:$A$21,0),MATCH($B36,Flows!$B$2:$E$2,0)))</f>
         <v>7.709236340827105</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="20" t="s">
         <v>14</v>
       </c>
@@ -6995,17 +7068,17 @@
         <v>1.0473620615192194E-3</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E37" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A37,Flows!$A$3:$A$21,0),MATCH($B37,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A37,Flows!$A$3:$A$21,0),MATCH($B37,Flows!$B$2:$E$2,0)))</f>
         <v>2.0683317011975162</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="20" t="s">
         <v>30</v>
       </c>
@@ -7017,14 +7090,14 @@
         <v>2.5418908119054118E-2</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E38" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A38,Flows!$A$3:$A$21,0),MATCH($B38,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A38,Flows!$A$3:$A$21,0),MATCH($B38,Flows!$B$2:$E$2,0)))</f>
         <v>38.629718395752846</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -7033,7 +7106,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="20" t="s">
         <v>3</v>
       </c>
@@ -7045,14 +7118,14 @@
         <v>4.7303493449781797E-2</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E39" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A39,Flows!$A$3:$A$21,0),MATCH($B39,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A39,Flows!$A$3:$A$21,0),MATCH($B39,Flows!$B$2:$E$2,0)))</f>
         <v>6.2239779351362285</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -7061,7 +7134,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="20" t="s">
         <v>5</v>
       </c>
@@ -7073,14 +7146,14 @@
         <v>4.098781270044901E-2</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E40" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A40,Flows!$A$3:$A$21,0),MATCH($B40,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A40,Flows!$A$3:$A$21,0),MATCH($B40,Flows!$B$2:$E$2,0)))</f>
         <v>2.3117632330505993</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -7089,7 +7162,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="20" t="s">
         <v>6</v>
       </c>
@@ -7101,14 +7174,14 @@
         <v>7.532592950265574E-3</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E41" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A41,Flows!$A$3:$A$21,0),MATCH($B41,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A41,Flows!$A$3:$A$21,0),MATCH($B41,Flows!$B$2:$E$2,0)))</f>
         <v>8.0022573451751509</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -7117,7 +7190,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="20" t="s">
         <v>45</v>
       </c>
@@ -7129,14 +7202,14 @@
         <v>3.521811975832758E-2</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E42" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A42,Flows!$A$3:$A$21,0),MATCH($B42,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A42,Flows!$A$3:$A$21,0),MATCH($B42,Flows!$B$2:$E$2,0)))</f>
         <v>40.900426430895223</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -7145,7 +7218,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="20" t="s">
         <v>8</v>
       </c>
@@ -7157,14 +7230,14 @@
         <v>7.5728155339805829E-3</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E43" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A43,Flows!$A$3:$A$21,0),MATCH($B43,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A43,Flows!$A$3:$A$21,0),MATCH($B43,Flows!$B$2:$E$2,0)))</f>
         <v>9.6027088142101817</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -7173,7 +7246,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="20" t="s">
         <v>38</v>
       </c>
@@ -7185,14 +7258,14 @@
         <v>5.2380952380952387E-3</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E44" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A44,Flows!$A$3:$A$21,0),MATCH($B44,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A44,Flows!$A$3:$A$21,0),MATCH($B44,Flows!$B$2:$E$2,0)))</f>
         <v>38.410835256840727</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -7201,7 +7274,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="20" t="s">
         <v>10</v>
       </c>
@@ -7213,14 +7286,14 @@
         <v>3.1333333333333331E-2</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E45" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A45,Flows!$A$3:$A$21,0),MATCH($B45,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A45,Flows!$A$3:$A$21,0),MATCH($B45,Flows!$B$2:$E$2,0)))</f>
         <v>54.948833770202704</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -7229,7 +7302,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="20" t="s">
         <v>37</v>
       </c>
@@ -7241,14 +7314,14 @@
         <v>7.8058067586863388E-3</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E46" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A46,Flows!$A$3:$A$21,0),MATCH($B46,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A46,Flows!$A$3:$A$21,0),MATCH($B46,Flows!$B$2:$E$2,0)))</f>
         <v>18.778630570011025</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -7257,7 +7330,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="20" t="s">
         <v>11</v>
       </c>
@@ -7269,14 +7342,14 @@
         <v>0.43852065321805955</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E47" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A47,Flows!$A$3:$A$21,0),MATCH($B47,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A47,Flows!$A$3:$A$21,0),MATCH($B47,Flows!$B$2:$E$2,0)))</f>
         <v>44.456985250973062</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -7285,7 +7358,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="20" t="s">
         <v>13</v>
       </c>
@@ -7297,14 +7370,14 @@
         <v>0.17005204487583964</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E48" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A48,Flows!$A$3:$A$21,0),MATCH($B48,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A48,Flows!$A$3:$A$21,0),MATCH($B48,Flows!$B$2:$E$2,0)))</f>
         <v>17.782794100389225</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -7313,7 +7386,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="20" t="s">
         <v>14</v>
       </c>
@@ -7325,14 +7398,14 @@
         <v>2.5616698292220113E-3</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E49" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A49,Flows!$A$3:$A$21,0),MATCH($B49,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A49,Flows!$A$3:$A$21,0),MATCH($B49,Flows!$B$2:$E$2,0)))</f>
         <v>2.934161026564222</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -7341,7 +7414,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="20" t="s">
         <v>30</v>
       </c>
@@ -7353,14 +7426,14 @@
         <v>2.3649226512727495E-3</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E50" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A50,Flows!$A$3:$A$21,0),MATCH($B50,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A50,Flows!$A$3:$A$21,0),MATCH($B50,Flows!$B$2:$E$2,0)))</f>
         <v>6.0994983764335551</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -7369,7 +7442,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="20" t="s">
         <v>3</v>
       </c>
@@ -7381,14 +7454,14 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E51" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A51,Flows!$A$3:$A$21,0),MATCH($B51,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A51,Flows!$A$3:$A$21,0),MATCH($B51,Flows!$B$2:$G$2,0)))</f>
         <v>16.095147899941573</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -7397,7 +7470,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="20" t="s">
         <v>5</v>
       </c>
@@ -7409,14 +7482,14 @@
         <v>3.6900000000000002E-2</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E52" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A52,Flows!$A$3:$A$21,0),MATCH($B52,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A52,Flows!$A$3:$A$21,0),MATCH($B52,Flows!$B$2:$G$2,0)))</f>
         <v>15.535450308907148</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
@@ -7425,7 +7498,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="20" t="s">
         <v>6</v>
       </c>
@@ -7437,14 +7510,14 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E53" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A53,Flows!$A$3:$A$21,0),MATCH($B53,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A53,Flows!$A$3:$A$21,0),MATCH($B53,Flows!$B$2:$G$2,0)))</f>
         <v>14.199668958756412</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
@@ -7453,7 +7526,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="20" t="s">
         <v>45</v>
       </c>
@@ -7465,14 +7538,14 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E54" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A54,Flows!$A$3:$A$21,0),MATCH($B54,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A54,Flows!$A$3:$A$21,0),MATCH($B54,Flows!$B$2:$G$2,0)))</f>
         <v>55.830044277922326</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -7481,7 +7554,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="20" t="s">
         <v>8</v>
       </c>
@@ -7493,14 +7566,14 @@
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E55" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A55,Flows!$A$3:$A$21,0),MATCH($B55,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A55,Flows!$A$3:$A$21,0),MATCH($B55,Flows!$B$2:$G$2,0)))</f>
         <v>8.0475739499707863</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
@@ -7509,7 +7582,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="20" t="s">
         <v>38</v>
       </c>
@@ -7521,14 +7594,14 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E56" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A56,Flows!$A$3:$A$21,0),MATCH($B56,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A56,Flows!$A$3:$A$21,0),MATCH($B56,Flows!$B$2:$G$2,0)))</f>
         <v>40.237869749853928</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
@@ -7537,7 +7610,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="20" t="s">
         <v>10</v>
       </c>
@@ -7549,14 +7622,14 @@
         <v>0.04</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E57" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A57,Flows!$A$3:$A$21,0),MATCH($B57,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A57,Flows!$A$3:$A$21,0),MATCH($B57,Flows!$B$2:$G$2,0)))</f>
         <v>89.026286821551821</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
@@ -7565,7 +7638,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="20" t="s">
         <v>37</v>
       </c>
@@ -7577,14 +7650,14 @@
         <v>6.7999999999999996E-3</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E58" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A58,Flows!$A$3:$A$21,0),MATCH($B58,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A58,Flows!$A$3:$A$21,0),MATCH($B58,Flows!$B$2:$G$2,0)))</f>
         <v>9.2635120764741856</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
@@ -7593,7 +7666,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="20" t="s">
         <v>11</v>
       </c>
@@ -7605,14 +7678,14 @@
         <v>0.54</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E59" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A59,Flows!$A$3:$A$21,0),MATCH($B59,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A59,Flows!$A$3:$A$21,0),MATCH($B59,Flows!$B$2:$G$2,0)))</f>
         <v>77.960872640341989</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
@@ -7621,7 +7694,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="20" t="s">
         <v>13</v>
       </c>
@@ -7633,14 +7706,14 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E60" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A60,Flows!$A$3:$A$21,0),MATCH($B60,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A60,Flows!$A$3:$A$21,0),MATCH($B60,Flows!$B$2:$G$2,0)))</f>
         <v>17.762827077650776</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
@@ -7649,7 +7722,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="20" t="s">
         <v>14</v>
       </c>
@@ -7661,14 +7734,14 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E61" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A61,Flows!$A$3:$A$21,0),MATCH($B61,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A61,Flows!$A$3:$A$21,0),MATCH($B61,Flows!$B$2:$G$2,0)))</f>
         <v>4.5267603468585671</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
@@ -7677,7 +7750,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="20" t="s">
         <v>30</v>
       </c>
@@ -7689,13 +7762,13 @@
         <v>2.5662489315418147E-2</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E62" s="22">
         <v>0</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -7704,26 +7777,26 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C63" s="21">
         <f>INDEX('Percent BW'!$N$4:$X$23,MATCH(VolumeFlow!A63,'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B63,'Percent BW'!$N$2:$X$2,0))</f>
         <v>2.7000000000000003E-2</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E63" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A63,Flows!$A$3:$A$21,0),MATCH($B63,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A63,Flows!$A$3:$A$21,0),MATCH($B63,Flows!$B$2:$G$2,0)))</f>
         <v>5.9813951248848829</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
@@ -7732,12 +7805,12 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C64" s="21">
         <f>INDEX('Percent BW'!$N$4:$X$23,MATCH(VolumeFlow!A64,'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B64,'Percent BW'!$N$2:$X$2,0))</f>
@@ -7749,7 +7822,7 @@
         <v>0.34858241588912464</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
@@ -7758,12 +7831,12 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C65" s="21">
         <f>INDEX('Percent BW'!$N$4:$X$23,MATCH(VolumeFlow!A65,'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B65,'Percent BW'!$N$2:$X$2,0))</f>
@@ -7775,7 +7848,7 @@
         <v>21.53302244958558</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
@@ -7784,26 +7857,26 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C66" s="30">
         <f>INDEX('Percent BW'!$N$4:$X$23,MATCH("Stomach",'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B66,'Percent BW'!$N$2:$X$2,0))+INDEX('Percent BW'!$N$4:$X$23,MATCH("Large Intestine",'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B66,'Percent BW'!$N$2:$X$2,0))+INDEX('Percent BW'!$N$4:$X$23,MATCH("Small Intestine",'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B66,'Percent BW'!$N$2:$X$2,0))</f>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E66" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A66,Flows!$A$3:$A$21,0),MATCH($B66,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A66,Flows!$A$3:$A$21,0),MATCH($B66,Flows!$B$2:$G$2,0)))</f>
         <v>37.38371953053052</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
@@ -7812,26 +7885,26 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C67" s="21">
         <f>INDEX('Percent BW'!$N$4:$X$23,MATCH(VolumeFlow!A67,'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B67,'Percent BW'!$N$2:$X$2,0))</f>
         <v>3.4000000000000002E-3</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E67" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A67,Flows!$A$3:$A$21,0),MATCH($B67,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A67,Flows!$A$3:$A$21,0),MATCH($B67,Flows!$B$2:$G$2,0)))</f>
         <v>17.944185374654648</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
@@ -7840,26 +7913,26 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C68" s="21">
         <f>INDEX('Percent BW'!$N$4:$X$23,MATCH(VolumeFlow!A68,'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B68,'Percent BW'!$N$2:$X$2,0))</f>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E68" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A68,Flows!$A$3:$A$21,0),MATCH($B68,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A68,Flows!$A$3:$A$21,0),MATCH($B68,Flows!$B$2:$G$2,0)))</f>
         <v>41.271626361705692</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
@@ -7868,26 +7941,26 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C69" s="21">
         <f>INDEX('Percent BW'!$N$4:$X$23,MATCH(VolumeFlow!A69,'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B69,'Percent BW'!$N$2:$X$2,0))</f>
         <v>2.7000000000000003E-2</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E69" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A69,Flows!$A$3:$A$21,0),MATCH($B69,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A69,Flows!$A$3:$A$21,0),MATCH($B69,Flows!$B$2:$G$2,0)))</f>
         <v>65.19720686124522</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
@@ -7896,26 +7969,26 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C70" s="21">
         <f>INDEX('Percent BW'!$N$4:$X$23,MATCH(VolumeFlow!A70,'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B70,'Percent BW'!$N$2:$X$2,0))</f>
         <v>7.234650166587339E-3</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E70" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A70,Flows!$A$3:$A$21,0),MATCH($B70,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A70,Flows!$A$3:$A$21,0),MATCH($B70,Flows!$B$2:$G$2,0)))</f>
         <v>11.286443996023408</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
@@ -7924,26 +7997,26 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C71" s="21">
         <f>INDEX('Percent BW'!$N$4:$X$23,MATCH(VolumeFlow!A71,'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B71,'Percent BW'!$N$2:$X$2,0))</f>
         <v>0.5</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E71" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A71,Flows!$A$3:$A$21,0),MATCH($B71,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A71,Flows!$A$3:$A$21,0),MATCH($B71,Flows!$B$2:$G$2,0)))</f>
         <v>26.916278061981973</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
@@ -7952,26 +8025,26 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C72" s="21">
         <f>INDEX('Percent BW'!$N$4:$X$23,MATCH(VolumeFlow!A72,'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B72,'Percent BW'!$N$2:$X$2,0))</f>
         <v>0.1</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E72" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A72,Flows!$A$3:$A$21,0),MATCH($B72,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A72,Flows!$A$3:$A$21,0),MATCH($B72,Flows!$B$2:$G$2,0)))</f>
         <v>16.149766837189183</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
@@ -7980,26 +8053,26 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C73" s="21">
         <f>INDEX('Percent BW'!$N$4:$X$23,MATCH(VolumeFlow!A73,'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B73,'Percent BW'!$N$2:$X$2,0))</f>
         <v>2.4667931688804553E-3</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E73" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A73,Flows!$A$3:$A$21,0),MATCH($B73,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A73,Flows!$A$3:$A$21,0),MATCH($B73,Flows!$B$2:$G$2,0)))</f>
         <v>6.2804648811291273</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
@@ -8008,12 +8081,12 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C74" s="30">
         <f>INDEX('Percent BW'!$N$4:$X$23,MATCH("Total",'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B74,'Percent BW'!$N$2:$X$2,0))-INDEX('Percent BW'!$N$4:$X$23,MATCH("GI Contents",'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B74,'Percent BW'!$N$2:$X$2,0))-INDEX('Percent BW'!$N$4:$X$23,MATCH("Blood",'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B74,'Percent BW'!$N$2:$X$2,0))-SUM(C63:C73)</f>
@@ -8025,7 +8098,7 @@
         <v>99.799527813744888</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
@@ -8034,7 +8107,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="20"/>
       <c r="B75" s="20"/>
       <c r="C75" s="21"/>
@@ -8042,30 +8115,30 @@
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="26"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="27" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="25" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="95" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J95" s="7"/>
     </row>
   </sheetData>
@@ -8082,44 +8155,44 @@
       <selection activeCell="A41" sqref="A31:A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="1" max="3" width="22.1796875" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="9" max="9" width="17.54296875" customWidth="1"/>
+    <col min="10" max="10" width="23.1796875" customWidth="1"/>
+    <col min="11" max="11" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="31" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E1" s="31"/>
       <c r="F1" s="31" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G1" s="31"/>
       <c r="H1" s="31"/>
       <c r="I1" s="31" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="J1" s="31"/>
       <c r="K1" s="31"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>54</v>
@@ -8137,19 +8210,19 @@
         <v>50</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -8157,7 +8230,7 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D3">
         <v>0.86</v>
@@ -8187,7 +8260,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -8195,7 +8268,7 @@
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D4">
         <v>0.9</v>
@@ -8225,7 +8298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -8233,7 +8306,7 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D5">
         <v>0.995</v>
@@ -8263,7 +8336,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -8271,7 +8344,7 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D6">
         <v>0.9</v>
@@ -8301,7 +8374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -8309,7 +8382,7 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D7">
         <v>0.75</v>
@@ -8339,7 +8412,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -8347,7 +8420,7 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D8">
         <v>0.83499999999999996</v>
@@ -8377,7 +8450,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -8385,7 +8458,7 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D9">
         <v>0.77</v>
@@ -8415,7 +8488,7 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -8423,7 +8496,7 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D10">
         <v>0.8</v>
@@ -8453,7 +8526,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -8461,7 +8534,7 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D11">
         <v>0.85</v>
@@ -8491,7 +8564,7 @@
         <v>6.81</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -8499,7 +8572,7 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D12">
         <v>0.4</v>
@@ -8529,7 +8602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -8537,7 +8610,7 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D13">
         <v>0.745</v>
@@ -8567,7 +8640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -8575,7 +8648,7 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -8605,7 +8678,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -8613,7 +8686,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D15">
         <v>0.86</v>
@@ -8643,15 +8716,15 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D16">
         <v>0.72399999999999998</v>
@@ -8684,7 +8757,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -8692,7 +8765,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D17">
         <v>0.86</v>
@@ -8722,7 +8795,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -8730,7 +8803,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D18">
         <v>0.9</v>
@@ -8760,7 +8833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -8768,7 +8841,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D19">
         <v>0.83799999999999997</v>
@@ -8798,7 +8871,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -8806,7 +8879,7 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D20">
         <v>0.9</v>
@@ -8836,7 +8909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -8844,7 +8917,7 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D21">
         <v>0.86</v>
@@ -8874,7 +8947,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -8882,7 +8955,7 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D22">
         <v>0.85399999999999998</v>
@@ -8912,7 +8985,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -8920,7 +8993,7 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D23">
         <v>0.873</v>
@@ -8950,7 +9023,7 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -8958,7 +9031,7 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D24">
         <v>0.67500000000000004</v>
@@ -8988,7 +9061,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -8996,7 +9069,7 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D25">
         <v>0.876</v>
@@ -9026,7 +9099,7 @@
         <v>6.81</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -9034,7 +9107,7 @@
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D26">
         <v>0.68100000000000005</v>
@@ -9064,7 +9137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -9072,7 +9145,7 @@
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D27">
         <v>0.745</v>
@@ -9102,7 +9175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -9110,7 +9183,7 @@
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -9140,160 +9213,160 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>43</v>
       </c>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
         <v>42</v>
       </c>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
         <v>41</v>
       </c>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="28" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
         <v>40</v>
       </c>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="26" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="26" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="26"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="26"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="25" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="25" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="25" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="25" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="25" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="25" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="25" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="25" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="25" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="25" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="25" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="25" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="25" t="s">
-        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -9315,9 +9388,9 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B1" s="32" t="s">
         <v>74</v>
       </c>
@@ -9341,7 +9414,7 @@
       <c r="P1" s="32"/>
       <c r="Q1" s="32"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -9355,7 +9428,7 @@
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G2" t="s">
         <v>104</v>
@@ -9373,7 +9446,7 @@
         <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M2" t="s">
         <v>104</v>
@@ -9391,16 +9464,16 @@
         <v>35</v>
       </c>
       <c r="R2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="S2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="T2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -9471,7 +9544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9547,7 +9620,7 @@
         <v>5.6864106313847307E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9628,7 +9701,7 @@
         <v>2.5114980288615898E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9708,7 +9781,7 @@
         <v>5.4886696505745992E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -9785,7 +9858,7 @@
         <v>5.0167385246276196E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -9860,7 +9933,7 @@
         <v>2.8432053156923653E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -9935,7 +10008,7 @@
         <v>0.14216026578461827</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -10010,7 +10083,7 @@
         <v>6.5749122925385942E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -10085,7 +10158,7 @@
         <v>0.19724736877615787</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -10164,7 +10237,7 @@
         <v>0.31452958804846792</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -10245,7 +10318,7 @@
         <v>3.2727958688602593E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -10320,7 +10393,7 @@
         <v>0.27543551495769786</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -10396,7 +10469,7 @@
         <v>6.2756011541943393E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -10477,7 +10550,7 @@
         <v>1.5068988173169536E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -10556,7 +10629,7 @@
         <v>1.5993029900769555E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -10637,7 +10710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -10693,7 +10766,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -10749,7 +10822,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -10801,27 +10874,27 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="25" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A25" s="25" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A26" s="25" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="40" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J40" s="7"/>
     </row>
   </sheetData>
@@ -10839,16 +10912,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10856,10 +10929,10 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -10867,14 +10940,14 @@
         <v>0.91600000000000004</v>
       </c>
       <c r="C2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J2" t="str">
         <f>IF(ISBLANK('Percent BW'!I4),"",'Percent BW'!I4/'Human Density'!$B2)</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -10883,14 +10956,14 @@
         <v>1.0245</v>
       </c>
       <c r="C3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J3" t="str">
         <f>IF(ISBLANK('Percent BW'!I5),"",'Percent BW'!I5/'Human Density'!$B3)</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -10899,10 +10972,10 @@
         <v>1.9761971830985914</v>
       </c>
       <c r="C4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -10910,10 +10983,10 @@
         <v>1.99</v>
       </c>
       <c r="C5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -10921,10 +10994,10 @@
         <v>1.92</v>
       </c>
       <c r="C6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -10932,10 +11005,10 @@
         <v>1.028</v>
       </c>
       <c r="C7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -10943,10 +11016,10 @@
         <v>0.78300000000000003</v>
       </c>
       <c r="C8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -10955,14 +11028,14 @@
         <v>1.0354999999999999</v>
       </c>
       <c r="C9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J9" t="str">
         <f>IF(ISBLANK('Percent BW'!I7),"",'Percent BW'!I10/'Human Density'!$B6)</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -10971,10 +11044,10 @@
         <v>1.0443364928909953</v>
       </c>
       <c r="C10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -10983,10 +11056,10 @@
         <v>1.05</v>
       </c>
       <c r="C11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -10995,10 +11068,10 @@
         <v>1.044</v>
       </c>
       <c r="C12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -11006,10 +11079,10 @@
         <v>1.042</v>
       </c>
       <c r="C13" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -11017,10 +11090,10 @@
         <v>1.03</v>
       </c>
       <c r="C14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -11028,10 +11101,10 @@
         <v>1.05</v>
       </c>
       <c r="C15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -11039,10 +11112,10 @@
         <v>1.05</v>
       </c>
       <c r="C16" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -11051,10 +11124,10 @@
         <v>1.0505</v>
       </c>
       <c r="C17" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -11062,10 +11135,10 @@
         <v>1.0409999999999999</v>
       </c>
       <c r="C18" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -11074,10 +11147,10 @@
         <v>1.0449999999999999</v>
       </c>
       <c r="C19" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -11086,10 +11159,10 @@
         <v>1.117305</v>
       </c>
       <c r="C20" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -11097,10 +11170,10 @@
         <v>1.5</v>
       </c>
       <c r="C21" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -11109,10 +11182,10 @@
         <v>1.145</v>
       </c>
       <c r="C22" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -11120,10 +11193,10 @@
         <v>1.1160000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -11131,10 +11204,10 @@
         <v>0.97099999999999997</v>
       </c>
       <c r="C24" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -11142,10 +11215,10 @@
         <v>1.054</v>
       </c>
       <c r="C25" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -11154,10 +11227,10 @@
         <v>1.0510000000000002</v>
       </c>
       <c r="C26" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -11165,10 +11238,10 @@
         <v>1.125</v>
       </c>
       <c r="C27" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -11176,21 +11249,21 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="C28" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B29" s="2">
         <v>1.02</v>
       </c>
       <c r="C29" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -11198,7 +11271,7 @@
         <v>1.08</v>
       </c>
       <c r="C30" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -11215,12 +11288,12 @@
       <selection pane="topRight" activeCell="B26" sqref="B26:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B1" s="32" t="s">
         <v>58</v>
       </c>
@@ -11236,7 +11309,7 @@
       <c r="L1" s="29"/>
       <c r="M1" s="29"/>
       <c r="N1" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O1" s="32"/>
       <c r="P1" s="32"/>
@@ -11246,7 +11319,7 @@
       <c r="T1" s="32"/>
       <c r="U1" s="32"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>16</v>
@@ -11264,7 +11337,7 @@
         <v>104</v>
       </c>
       <c r="L2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="N2" t="s">
         <v>34</v>
@@ -11282,10 +11355,10 @@
         <v>104</v>
       </c>
       <c r="X2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -11362,7 +11435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11426,7 +11499,7 @@
         <v>2.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11490,7 +11563,7 @@
         <v>1.9521717911176185E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11551,7 +11624,7 @@
         <v>7.2310597961656342E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -11616,7 +11689,7 @@
         <v>1.9314340898116854E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -11680,7 +11753,7 @@
         <v>1.5333333333333334E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -11744,7 +11817,7 @@
         <v>1.5333333333333334E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -11808,7 +11881,7 @@
         <v>1.5333333333333334E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -11873,7 +11946,7 @@
         <v>3.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -11938,7 +12011,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -12003,7 +12076,7 @@
         <v>2.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -12068,7 +12141,7 @@
         <v>7.234650166587339E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -12133,7 +12206,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -12198,7 +12271,7 @@
         <v>1.3397129186602874E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -12261,7 +12334,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -12327,7 +12400,7 @@
         <v>2.4667931688804553E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -12392,7 +12465,7 @@
         <v>2.8544243577545187E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -12452,7 +12525,7 @@
         <v>7.0222222222222228E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -12501,7 +12574,7 @@
         <v>5.000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -12552,7 +12625,7 @@
         <v>1.3333333333333332E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -12597,9 +12670,9 @@
         <v>0.91181020202827034</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B24" t="s">
         <v>105</v>
@@ -12626,34 +12699,34 @@
         <v>105</v>
       </c>
       <c r="V24" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="X24" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>105</v>
       </c>
       <c r="B26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>341</v>
+      </c>
+      <c r="B27" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>345</v>
-      </c>
-      <c r="B27" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>347</v>
-      </c>
       <c r="B28" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -12674,9 +12747,9 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>65</v>
       </c>
@@ -12687,7 +12760,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -12704,7 +12777,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -12726,7 +12799,7 @@
         <v>1.4499370629370629</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -12748,7 +12821,7 @@
         <v>1.9761971830985914</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -12770,7 +12843,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -12792,7 +12865,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -12811,7 +12884,7 @@
         <v>1.028</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -12833,7 +12906,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -12851,7 +12924,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -12882,9 +12955,9 @@
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" s="32" t="s">
         <v>88</v>
       </c>
@@ -12896,7 +12969,7 @@
       <c r="H1" s="32"/>
       <c r="I1" s="32"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>16</v>
@@ -12914,7 +12987,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -12946,7 +13019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12970,7 +13043,7 @@
         <v>9.6666666666666679E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12988,7 +13061,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13012,7 +13085,7 @@
         <v>6.3333333333333339E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -13036,7 +13109,7 @@
         <v>2.3333333333333331E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -13056,7 +13129,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -13086,7 +13159,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -13114,7 +13187,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -13140,7 +13213,7 @@
         <v>0.38666666666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -13168,7 +13241,7 @@
         <v>2.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -13190,7 +13263,7 @@
         <v>4.3333333333333335E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -13216,7 +13289,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -13234,7 +13307,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -13274,146 +13347,146 @@
       <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B14" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>297</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>298</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>299</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>300</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>301</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:12" ht="36" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="E14" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="F14" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="G14" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="H14" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="I14" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>126</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="L14" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="L14" s="19" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="11">
         <v>15</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="E15" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="G15" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="I15" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>134</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15">
@@ -13422,100 +13495,100 @@
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="25" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="11">
         <v>6</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="I16" s="11" t="s">
         <v>140</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>141</v>
       </c>
       <c r="J16" s="10"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="11">
         <v>10</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="G17" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="I17" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="J17" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="B18" s="11">
         <v>10</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="G18" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="I18" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="J18" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="K18">
         <f>(60+139)*10/1000</f>
@@ -13526,33 +13599,33 @@
         <v>0.52368421052631586</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="11">
         <v>12</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="F19" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G19" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="I19" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>163</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19">
@@ -13564,168 +13637,168 @@
         <v>0.42631578947368426</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B20" s="11">
         <v>10</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="G20" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="I20" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="J20" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>172</v>
       </c>
       <c r="B21" s="11">
         <v>5</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="F21" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="G21" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="H21" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="I21" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="J21" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>180</v>
       </c>
       <c r="B22" s="11">
         <v>12</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D22" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="G22" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="H22" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="I22" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="J22" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
         <v>187</v>
-      </c>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" ht="24" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>188</v>
       </c>
       <c r="B23" s="11">
         <v>12</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="F23" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="G23" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="I23" s="11" t="s">
         <v>193</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>194</v>
       </c>
       <c r="J23" s="10"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B24" s="11">
         <v>20</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="G24" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="H24" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="I24" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="J24" s="10"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>18</v>
       </c>
@@ -13733,25 +13806,25 @@
         <v>10</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D25" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="F25" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="G25" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="H25" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="I25" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>208</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25">
@@ -13763,7 +13836,7 @@
         <v>0.77368421052631586</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>104</v>
       </c>
@@ -13771,25 +13844,25 @@
         <v>20</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="G26" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="H26" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="I26" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26">
@@ -13801,188 +13874,188 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="25" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B27" s="11">
         <v>20</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E27" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="G27" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="H27" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>219</v>
-      </c>
       <c r="I27" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J27" s="10"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="25" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B28" s="11">
         <v>10</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="F28" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="G28" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="H28" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="11" t="s">
-        <v>225</v>
-      </c>
       <c r="I28" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J28" s="10"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="25" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B29" s="11">
         <v>10</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="F29" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="G29" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="H29" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="H29" s="11" t="s">
-        <v>231</v>
-      </c>
       <c r="I29" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J29" s="10"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B30" s="11">
         <v>6</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D30" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="G30" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="H30" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="I30" s="12" t="s">
         <v>237</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>238</v>
       </c>
       <c r="J30" s="10"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B31" s="11">
         <v>6</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D31" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="F31" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="G31" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="H31" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="I31" s="12" t="s">
         <v>244</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>245</v>
       </c>
       <c r="J31" s="10"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B32" s="11">
         <v>12</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D32" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="F32" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="G32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="H32" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="I32" s="12" t="s">
         <v>251</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>252</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32">
@@ -13994,78 +14067,78 @@
         <v>0.6763157894736842</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B33" s="11">
         <v>12</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D33" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="F33" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="G33" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="H33" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="I33" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="J33" s="10"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>260</v>
       </c>
       <c r="B34" s="11">
         <v>10</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D34" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="F34" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="G34" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="H34" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="I34" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="I34" s="12" t="s">
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="J34" s="10"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="B35" s="11">
         <v>10</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E35" s="11">
         <v>629</v>
@@ -14080,127 +14153,127 @@
         <v>22</v>
       </c>
       <c r="I35" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="10" t="s">
         <v>268</v>
-      </c>
-      <c r="J35" s="10"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>269</v>
       </c>
       <c r="B36" s="11">
         <v>9</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D36" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="F36" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="G36" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="H36" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="I36" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="10" t="s">
         <v>275</v>
-      </c>
-      <c r="J36" s="10"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>276</v>
       </c>
       <c r="B37" s="11">
         <v>10</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D37" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="F37" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="G37" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="H37" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="I37" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="10" t="s">
         <v>282</v>
-      </c>
-      <c r="J37" s="10"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>283</v>
       </c>
       <c r="B38" s="11">
         <v>10</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D38" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="F38" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="G38" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="H38" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="I38" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="15" t="s">
         <v>289</v>
-      </c>
-      <c r="J38" s="10"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
-        <v>290</v>
       </c>
       <c r="B39" s="16">
         <v>10</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="F39" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="G39" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="H39" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="I39" s="16" t="s">
         <v>294</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="I39" s="16" t="s">
-        <v>295</v>
       </c>
       <c r="J39" s="17"/>
     </row>

--- a/datatables/pkdata.xlsx
+++ b/datatables/pkdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwambaug\git\httk-dev\datatables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwambaug\git\httk-datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38A2BC3-BD4D-430E-B9EB-12EC2EFFF231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDE74C9-4EC4-4609-9BA7-A8D9BFAABFB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="1740" windowWidth="16560" windowHeight="8970" tabRatio="925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2505" yWindow="735" windowWidth="21600" windowHeight="11835" tabRatio="884" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic PK" sheetId="7" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="378">
   <si>
     <t>Tissue</t>
   </si>
@@ -519,6 +519,30 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <r>
+      <t>Robertshaw, D., Temperature Regulation and Thermal Environment, in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dukes' Physiology of Domestic Animals,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 12th ed., Reece W.O., Ed. Copyright 2004 by Cornell University.</t>
+    </r>
   </si>
   <si>
     <t>Volume (L/kg)</t>
@@ -1278,6 +1302,54 @@
   </si>
   <si>
     <r>
+      <t>Stammers, Arthur Dighton. "The blood count and body temperature in normal rats." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The Journal of physiology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 61.3 (1926): 329.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Gordon, Christopher J. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Temperature regulation in laboratory rodents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Cambridge University Press, 1993.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Schmitt, Walter. "General approach for the calculation of tissue to plasma partition coefficients." </t>
     </r>
     <r>
@@ -1577,6 +1649,9 @@
     <t>Monkey</t>
   </si>
   <si>
+    <t>Gauvin, David V. "Electrocardiogram, hemodynamics, and core body temperatures of the normal freely moving cynomolgus monkey by remote radiotelemetry", Journal of Pharmacological and Toxicological Methods</t>
+  </si>
+  <si>
     <t>RabbitRaw</t>
   </si>
   <si>
@@ -1753,102 +1828,6 @@
   </si>
   <si>
     <t>Sun and Sethu (2017)</t>
-  </si>
-  <si>
-    <t>Small Intestine Mean Residence Time</t>
-  </si>
-  <si>
-    <t>MRT Reference: Grandoni et al. (2019)</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>Small Intestine Radius</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t>Human Radius Reference: Yu et al. (1999)</t>
-  </si>
-  <si>
-    <t>Rat Radius Reference: Griffin and O’Driscoll (2008)</t>
-  </si>
-  <si>
-    <r>
-      <t>Rat temp: Stammers, Arthur Dighton. "The blood count and body temperature in normal rats." </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The Journal of physiology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 61.3 (1926): 329.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Dog temp: Robertshaw, D., Temperature Regulation and Thermal Environment, in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Dukes' Physiology of Domestic Animals,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 12th ed., Reece W.O., Ed. Copyright 2004 by Cornell University.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Mouse temp: Gordon, Christopher J. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Temperature regulation in laboratory rodents</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. Cambridge University Press, 1993.</t>
-    </r>
-  </si>
-  <si>
-    <t>Monkey temp: Gauvin, David V. "Electrocardiogram, hemodynamics, and core body temperatures of the normal freely moving cynomolgus monkey by remote radiotelemetry", Journal of Pharmacological and Toxicological Methods</t>
   </si>
 </sst>
 </file>
@@ -1980,7 +1959,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1999,14 +1978,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor theme="7" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2032,30 +2005,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="7" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="7" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="7" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="7" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="7" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2064,7 +2013,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2132,9 +2081,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2173,8 +2119,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB35B52E-DAB3-4133-BB0A-E817A59A59D5}" name="Table1" displayName="Table1" ref="A1:H19" totalsRowShown="0">
-  <autoFilter ref="A1:H19" xr:uid="{48C012F2-270A-4595-A0D1-2F8944A01E8D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB35B52E-DAB3-4133-BB0A-E817A59A59D5}" name="Table1" displayName="Table1" ref="A1:H17" totalsRowShown="0">
+  <autoFilter ref="A1:H17" xr:uid="{48C012F2-270A-4595-A0D1-2F8944A01E8D}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{36311C77-E515-44E1-B849-6BDC951DE56C}" name="Parameter"/>
     <tableColumn id="2" xr3:uid="{7776CC9B-A6DC-4860-ACD5-A0A0A5E9CE64}" name="Units"/>
@@ -2190,9 +2136,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2230,9 +2176,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2265,9 +2211,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2300,9 +2263,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2476,20 +2456,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" customWidth="1"/>
-    <col min="3" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="3" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -2512,15 +2492,15 @@
         <v>104</v>
       </c>
       <c r="H1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C2" s="4">
         <f>14.5/C5</f>
@@ -2546,12 +2526,12 @@
         <v>693</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C3" s="4">
         <f>1/C5</f>
@@ -2577,7 +2557,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -2608,7 +2588,7 @@
         <v>324.78975528124914</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -2634,7 +2614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -2665,7 +2645,7 @@
         <v>8.8000000000000009E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -2696,7 +2676,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -2727,7 +2707,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -2753,7 +2733,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -2784,7 +2764,7 @@
         <v>0.15083333333333332</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -2815,7 +2795,7 @@
         <v>4.0064102564102561E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -2846,7 +2826,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -2873,12 +2853,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C14" s="4">
         <f xml:space="preserve"> (0.003+0.3*0.0021)/(0.003 + 0.0021+0.00088) * 0.006/(0.006+0.06+0.96)</f>
@@ -2903,12 +2883,12 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C15" s="4">
         <f xml:space="preserve"> 0.06/ (0.928+0.06+0.006)</f>
@@ -2935,12 +2915,12 @@
         <v>6.95134061569017E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B16" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C16" s="4">
         <v>24.75</v>
@@ -2961,12 +2941,12 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B17" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C17" s="4">
         <v>0.33</v>
@@ -2987,107 +2967,54 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="35">
-        <v>88</v>
-      </c>
-      <c r="E18" s="35">
-        <v>109</v>
-      </c>
-      <c r="F18" s="35">
-        <v>199.2</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>377</v>
-      </c>
-      <c r="B19" t="s">
-        <v>378</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4">
-        <v>0.18</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4">
-        <v>1.75</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="25" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="25" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="25" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -3108,13 +3035,13 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B1" s="32" t="s">
         <v>57</v>
       </c>
@@ -3130,7 +3057,7 @@
       <c r="H1" s="32"/>
       <c r="I1" s="32"/>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>54</v>
       </c>
@@ -3159,7 +3086,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -3200,7 +3127,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3241,7 +3168,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -3282,7 +3209,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -3323,7 +3250,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -3382,12 +3309,12 @@
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B1" s="32" t="s">
         <v>57</v>
       </c>
@@ -3403,7 +3330,7 @@
       <c r="H1" s="32"/>
       <c r="I1" s="32"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>54</v>
       </c>
@@ -3432,7 +3359,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>TissueComp!A3</f>
         <v>Adipose</v>
@@ -3477,7 +3404,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>TissueComp!A4</f>
         <v>Bone</v>
@@ -3522,7 +3449,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>TissueComp!A5</f>
         <v>Brain</v>
@@ -3567,7 +3494,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>TissueComp!A6</f>
         <v>Gut</v>
@@ -3612,7 +3539,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>TissueComp!A7</f>
         <v>Heart</v>
@@ -3657,7 +3584,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>TissueComp!A8</f>
         <v>Kidney</v>
@@ -3702,7 +3629,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>TissueComp!A9</f>
         <v>Liver</v>
@@ -3747,7 +3674,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>TissueComp!A10</f>
         <v>Lung</v>
@@ -3792,7 +3719,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>TissueComp!A11</f>
         <v>Muscle</v>
@@ -3837,7 +3764,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>TissueComp!A12</f>
         <v>Skin</v>
@@ -3882,7 +3809,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>TissueComp!A13</f>
         <v>Spleen</v>
@@ -3927,7 +3854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="e">
         <f>SUM(B3:B13)/SUM(VolumeFlow!#REF!)</f>
         <v>#REF!</v>
@@ -3965,7 +3892,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>TissueComp!A3</f>
         <v>Adipose</v>
@@ -4010,7 +3937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>TissueComp!A4</f>
         <v>Bone</v>
@@ -4055,7 +3982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>TissueComp!A5</f>
         <v>Brain</v>
@@ -4100,7 +4027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>TissueComp!A6</f>
         <v>Gut</v>
@@ -4145,7 +4072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>TissueComp!A7</f>
         <v>Heart</v>
@@ -4190,7 +4117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>TissueComp!A8</f>
         <v>Kidney</v>
@@ -4235,7 +4162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>TissueComp!A9</f>
         <v>Liver</v>
@@ -4280,7 +4207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>TissueComp!A10</f>
         <v>Lung</v>
@@ -4325,7 +4252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>TissueComp!A11</f>
         <v>Muscle</v>
@@ -4370,7 +4297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>TissueComp!A12</f>
         <v>Skin</v>
@@ -4415,7 +4342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>TissueComp!A13</f>
         <v>Spleen</v>
@@ -4460,7 +4387,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="e">
         <f>SUM(B15:B25)/SUM(VolumeFlow!#REF!)</f>
         <v>#REF!</v>
@@ -4498,7 +4425,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>TissueComp!A3</f>
         <v>Adipose</v>
@@ -4543,7 +4470,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>TissueComp!A4</f>
         <v>Bone</v>
@@ -4588,7 +4515,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>TissueComp!A5</f>
         <v>Brain</v>
@@ -4633,7 +4560,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>TissueComp!A6</f>
         <v>Gut</v>
@@ -4678,7 +4605,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>TissueComp!A7</f>
         <v>Heart</v>
@@ -4723,7 +4650,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>TissueComp!A8</f>
         <v>Kidney</v>
@@ -4768,7 +4695,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>TissueComp!A9</f>
         <v>Liver</v>
@@ -4813,7 +4740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>TissueComp!A10</f>
         <v>Lung</v>
@@ -4858,7 +4785,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>TissueComp!A11</f>
         <v>Muscle</v>
@@ -4903,7 +4830,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>TissueComp!A12</f>
         <v>Skin</v>
@@ -4948,7 +4875,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>TissueComp!A13</f>
         <v>Spleen</v>
@@ -4993,7 +4920,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="e">
         <f>SUM(B27:B37)/SUM(VolumeFlow!#REF!)</f>
         <v>#REF!</v>
@@ -5031,7 +4958,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>TissueComp!A3</f>
         <v>Adipose</v>
@@ -5076,7 +5003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>TissueComp!A4</f>
         <v>Bone</v>
@@ -5121,7 +5048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>TissueComp!A5</f>
         <v>Brain</v>
@@ -5166,7 +5093,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>TissueComp!A6</f>
         <v>Gut</v>
@@ -5211,7 +5138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>TissueComp!A7</f>
         <v>Heart</v>
@@ -5256,7 +5183,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>TissueComp!A8</f>
         <v>Kidney</v>
@@ -5301,7 +5228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>TissueComp!A9</f>
         <v>Liver</v>
@@ -5346,7 +5273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>TissueComp!A10</f>
         <v>Lung</v>
@@ -5391,7 +5318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>TissueComp!A11</f>
         <v>Muscle</v>
@@ -5436,7 +5363,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>TissueComp!A12</f>
         <v>Skin</v>
@@ -5481,7 +5408,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>TissueComp!A13</f>
         <v>Spleen</v>
@@ -5526,7 +5453,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="e">
         <f>SUM(B39:B49)/SUM(VolumeFlow!#REF!)</f>
         <v>#REF!</v>
@@ -5564,7 +5491,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>TissueComp!A3</f>
         <v>Adipose</v>
@@ -5609,7 +5536,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>TissueComp!A4</f>
         <v>Bone</v>
@@ -5654,7 +5581,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>TissueComp!A5</f>
         <v>Brain</v>
@@ -5699,7 +5626,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>TissueComp!A6</f>
         <v>Gut</v>
@@ -5744,7 +5671,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>TissueComp!A7</f>
         <v>Heart</v>
@@ -5789,7 +5716,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>TissueComp!A8</f>
         <v>Kidney</v>
@@ -5834,7 +5761,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>TissueComp!A9</f>
         <v>Liver</v>
@@ -5879,7 +5806,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>TissueComp!A10</f>
         <v>Lung</v>
@@ -5924,7 +5851,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>TissueComp!A11</f>
         <v>Muscle</v>
@@ -5969,7 +5896,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>TissueComp!A12</f>
         <v>Skin</v>
@@ -6014,7 +5941,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>TissueComp!A13</f>
         <v>Spleen</v>
@@ -6059,7 +5986,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="e">
         <f>SUM(B51:B61)/SUM(VolumeFlow!#REF!)</f>
         <v>#REF!</v>
@@ -6116,35 +6043,35 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="4" width="14.54296875" customWidth="1"/>
-    <col min="5" max="5" width="28.453125" customWidth="1"/>
-    <col min="6" max="6" width="22.1796875" customWidth="1"/>
+    <col min="1" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>107</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
@@ -6156,14 +6083,14 @@
         <v>0.20862445414847144</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E2" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A2,Flows!$A$3:$A$21,0),MATCH($B2,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A2,Flows!$A$3:$A$21,0),MATCH($B2,Flows!$B$2:$E$2,0)))</f>
         <v>10.743599688785142</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -6172,7 +6099,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
@@ -6184,14 +6111,14 @@
         <v>7.2310597961656342E-2</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E3" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A3,Flows!$A$3:$A$21,0),MATCH($B3,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A3,Flows!$A$3:$A$21,0),MATCH($B3,Flows!$B$2:$E$2,0)))</f>
         <v>9.7188255646240975</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -6200,7 +6127,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
@@ -6212,14 +6139,14 @@
         <v>1.9314340898116854E-2</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E4" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A4,Flows!$A$3:$A$21,0),MATCH($B4,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A4,Flows!$A$3:$A$21,0),MATCH($B4,Flows!$B$2:$E$2,0)))</f>
         <v>28.925076085190767</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -6228,7 +6155,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>45</v>
       </c>
@@ -6240,14 +6167,14 @@
         <v>1.5802847456629968E-2</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E5" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A5,Flows!$A$3:$A$21,0),MATCH($B5,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A5,Flows!$A$3:$A$21,0),MATCH($B5,Flows!$B$2:$E$2,0)))</f>
         <v>47.519767854241969</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -6256,7 +6183,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>8</v>
       </c>
@@ -6268,14 +6195,14 @@
         <v>4.5631067961165043E-3</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E6" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A6,Flows!$A$3:$A$21,0),MATCH($B6,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A6,Flows!$A$3:$A$21,0),MATCH($B6,Flows!$B$2:$E$2,0)))</f>
         <v>9.9171689434939783</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -6284,7 +6211,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>38</v>
       </c>
@@ -6296,14 +6223,14 @@
         <v>4.1904761904761906E-3</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E7" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A7,Flows!$A$3:$A$21,0),MATCH($B7,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A7,Flows!$A$3:$A$21,0),MATCH($B7,Flows!$B$2:$E$2,0)))</f>
         <v>51.238706208052214</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -6312,7 +6239,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>10</v>
       </c>
@@ -6324,14 +6251,14 @@
         <v>2.4476190476190471E-2</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E8" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A8,Flows!$A$3:$A$21,0),MATCH($B8,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A8,Flows!$A$3:$A$21,0),MATCH($B8,Flows!$B$2:$E$2,0)))</f>
         <v>59.91622903360944</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -6340,7 +6267,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>37</v>
       </c>
@@ -6352,14 +6279,14 @@
         <v>7.234650166587339E-3</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E9" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A9,Flows!$A$3:$A$21,0),MATCH($B9,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A9,Flows!$A$3:$A$21,0),MATCH($B9,Flows!$B$2:$E$2,0)))</f>
         <v>5.7850152170381541</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -6368,7 +6295,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
@@ -6380,14 +6307,14 @@
         <v>0.38424591738712782</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E10" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A10,Flows!$A$3:$A$21,0),MATCH($B10,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A10,Flows!$A$3:$A$21,0),MATCH($B10,Flows!$B$2:$E$2,0)))</f>
         <v>30.991152948418677</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -6396,7 +6323,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>13</v>
       </c>
@@ -6408,14 +6335,14 @@
         <v>3.3204899288913951E-2</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E11" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A11,Flows!$A$3:$A$21,0),MATCH($B11,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A11,Flows!$A$3:$A$21,0),MATCH($B11,Flows!$B$2:$E$2,0)))</f>
         <v>12.396461179367471</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -6424,7 +6351,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>14</v>
       </c>
@@ -6436,14 +6363,14 @@
         <v>2.4667931688804553E-3</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E12" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A12,Flows!$A$3:$A$21,0),MATCH($B12,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A12,Flows!$A$3:$A$21,0),MATCH($B12,Flows!$B$2:$E$2,0)))</f>
         <v>3.1817583693709843</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -6452,7 +6379,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>15</v>
       </c>
@@ -6463,13 +6390,13 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E13" s="22">
         <v>3.7</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -6478,7 +6405,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>30</v>
       </c>
@@ -6490,14 +6417,14 @@
         <v>5.1820372533547543E-2</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E14" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A14,Flows!$A$3:$A$21,0),MATCH($B14,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A14,Flows!$A$3:$A$21,0),MATCH($B14,Flows!$B$2:$E$2,0)))</f>
         <v>4.1900038786262614</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -6506,7 +6433,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>3</v>
       </c>
@@ -6518,14 +6445,14 @@
         <v>7.2598253275109076E-2</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E15" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A15,Flows!$A$3:$A$21,0),MATCH($B15,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A15,Flows!$A$3:$A$21,0),MATCH($B15,Flows!$B$2:$E$2,0)))</f>
         <v>1.131370849898476</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -6534,7 +6461,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>5</v>
       </c>
@@ -6546,14 +6473,14 @@
         <v>3.6939633668305896E-2</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E16" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A16,Flows!$A$3:$A$21,0),MATCH($B16,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A16,Flows!$A$3:$A$21,0),MATCH($B16,Flows!$B$2:$E$2,0)))</f>
         <v>25.535040082208603</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -6562,7 +6489,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>6</v>
       </c>
@@ -6574,14 +6501,14 @@
         <v>5.5045871559633031E-3</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E17" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A17,Flows!$A$3:$A$21,0),MATCH($B17,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A17,Flows!$A$3:$A$21,0),MATCH($B17,Flows!$B$2:$E$2,0)))</f>
         <v>3.676955262170047</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -6590,7 +6517,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>45</v>
       </c>
@@ -6602,14 +6529,14 @@
         <v>2.5852334412265577E-2</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E18" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A18,Flows!$A$3:$A$21,0),MATCH($B18,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A18,Flows!$A$3:$A$21,0),MATCH($B18,Flows!$B$2:$E$2,0)))</f>
         <v>27.718585822512662</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -6618,7 +6545,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>8</v>
       </c>
@@ -6630,14 +6557,14 @@
         <v>3.2038834951456309E-3</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E19" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A19,Flows!$A$3:$A$21,0),MATCH($B19,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A19,Flows!$A$3:$A$21,0),MATCH($B19,Flows!$B$2:$E$2,0)))</f>
         <v>11.030865786510139</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -6646,7 +6573,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>38</v>
       </c>
@@ -6658,14 +6585,14 @@
         <v>6.9523809523809521E-3</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E20" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A20,Flows!$A$3:$A$21,0),MATCH($B20,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A20,Flows!$A$3:$A$21,0),MATCH($B20,Flows!$B$2:$E$2,0)))</f>
         <v>26.021529547664947</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -6674,7 +6601,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>10</v>
       </c>
@@ -6686,14 +6613,14 @@
         <v>3.4857142857142857E-2</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E21" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A21,Flows!$A$3:$A$21,0),MATCH($B21,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A21,Flows!$A$3:$A$21,0),MATCH($B21,Flows!$B$2:$E$2,0)))</f>
         <v>33.375440072005041</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -6702,7 +6629,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>37</v>
       </c>
@@ -6714,14 +6641,14 @@
         <v>4.7596382674916704E-3</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E22" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A22,Flows!$A$3:$A$21,0),MATCH($B22,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A22,Flows!$A$3:$A$21,0),MATCH($B22,Flows!$B$2:$E$2,0)))</f>
         <v>4.3953757518555792</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -6730,7 +6657,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>11</v>
       </c>
@@ -6742,14 +6669,14 @@
         <v>0.38837656099903939</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E23" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A23,Flows!$A$3:$A$21,0),MATCH($B23,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A23,Flows!$A$3:$A$21,0),MATCH($B23,Flows!$B$2:$E$2,0)))</f>
         <v>21.213203435596427</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -6758,7 +6685,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>13</v>
       </c>
@@ -6770,14 +6697,14 @@
         <v>0.17032054810459099</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E24" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A24,Flows!$A$3:$A$21,0),MATCH($B24,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A24,Flows!$A$3:$A$21,0),MATCH($B24,Flows!$B$2:$E$2,0)))</f>
         <v>16.404877323527902</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -6786,7 +6713,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>14</v>
       </c>
@@ -6798,14 +6725,14 @@
         <v>1.8975332068311196E-3</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E25" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A25,Flows!$A$3:$A$21,0),MATCH($B25,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A25,Flows!$A$3:$A$21,0),MATCH($B25,Flows!$B$2:$E$2,0)))</f>
         <v>2.8779245994292482</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -6814,7 +6741,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>30</v>
       </c>
@@ -6826,17 +6753,17 @@
         <v>5.2399992921151606E-2</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E26" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A26,Flows!$A$3:$A$21,0),MATCH($B26,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A26,Flows!$A$3:$A$21,0),MATCH($B26,Flows!$B$2:$E$2,0)))</f>
         <v>59.664255982958501</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>3</v>
       </c>
@@ -6848,17 +6775,17 @@
         <v>7.3169652284369002E-2</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E27" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A27,Flows!$A$3:$A$21,0),MATCH($B27,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A27,Flows!$A$3:$A$21,0),MATCH($B27,Flows!$B$2:$E$2,0)))</f>
         <v>4.0614836065401096</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>5</v>
       </c>
@@ -6870,17 +6797,17 @@
         <v>5.429620126861949E-2</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E28" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A28,Flows!$A$3:$A$21,0),MATCH($B28,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A28,Flows!$A$3:$A$21,0),MATCH($B28,Flows!$B$2:$E$2,0)))</f>
         <v>8.766383654772504</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>6</v>
       </c>
@@ -6892,17 +6819,17 @@
         <v>1.5934331240946405E-2</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E29" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A29,Flows!$A$3:$A$21,0),MATCH($B29,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A29,Flows!$A$3:$A$21,0),MATCH($B29,Flows!$B$2:$E$2,0)))</f>
         <v>4.963996082874039</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>45</v>
       </c>
@@ -6914,17 +6841,17 @@
         <v>4.0408654780552319E-2</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E30" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A30,Flows!$A$3:$A$21,0),MATCH($B30,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A30,Flows!$A$3:$A$21,0),MATCH($B30,Flows!$B$2:$E$2,0)))</f>
         <v>27.264372424876349</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>8</v>
       </c>
@@ -6936,17 +6863,17 @@
         <v>4.8543689320388345E-3</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E31" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A31,Flows!$A$3:$A$21,0),MATCH($B31,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A31,Flows!$A$3:$A$21,0),MATCH($B31,Flows!$B$2:$E$2,0)))</f>
         <v>5.2648443303209511</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>38</v>
       </c>
@@ -6958,17 +6885,17 @@
         <v>1.5904761904761904E-2</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E32" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A32,Flows!$A$3:$A$21,0),MATCH($B32,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A32,Flows!$A$3:$A$21,0),MATCH($B32,Flows!$B$2:$E$2,0)))</f>
         <v>24.443920105061554</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>10</v>
       </c>
@@ -6980,17 +6907,17 @@
         <v>5.228571428571429E-2</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E33" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A33,Flows!$A$3:$A$21,0),MATCH($B33,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A33,Flows!$A$3:$A$21,0),MATCH($B33,Flows!$B$2:$E$2,0)))</f>
         <v>33.845427837777535</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>37</v>
       </c>
@@ -7002,17 +6929,17 @@
         <v>6.9490718705378391E-3</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E34" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A34,Flows!$A$3:$A$21,0),MATCH($B34,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A34,Flows!$A$3:$A$21,0),MATCH($B34,Flows!$B$2:$E$2,0)))</f>
         <v>0.75212061861727864</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>11</v>
       </c>
@@ -7024,17 +6951,17 @@
         <v>0.36887608069164268</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E35" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A35,Flows!$A$3:$A$21,0),MATCH($B35,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A35,Flows!$A$3:$A$21,0),MATCH($B35,Flows!$B$2:$E$2,0)))</f>
         <v>17.110744073543088</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>13</v>
       </c>
@@ -7046,17 +6973,17 @@
         <v>0.14794527904198049</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E36" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A36,Flows!$A$3:$A$21,0),MATCH($B36,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A36,Flows!$A$3:$A$21,0),MATCH($B36,Flows!$B$2:$E$2,0)))</f>
         <v>7.709236340827105</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>14</v>
       </c>
@@ -7068,17 +6995,17 @@
         <v>1.0473620615192194E-3</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E37" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A37,Flows!$A$3:$A$21,0),MATCH($B37,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A37,Flows!$A$3:$A$21,0),MATCH($B37,Flows!$B$2:$E$2,0)))</f>
         <v>2.0683317011975162</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>30</v>
       </c>
@@ -7090,14 +7017,14 @@
         <v>2.5418908119054118E-2</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E38" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A38,Flows!$A$3:$A$21,0),MATCH($B38,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A38,Flows!$A$3:$A$21,0),MATCH($B38,Flows!$B$2:$E$2,0)))</f>
         <v>38.629718395752846</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -7106,7 +7033,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>3</v>
       </c>
@@ -7118,14 +7045,14 @@
         <v>4.7303493449781797E-2</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E39" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A39,Flows!$A$3:$A$21,0),MATCH($B39,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A39,Flows!$A$3:$A$21,0),MATCH($B39,Flows!$B$2:$E$2,0)))</f>
         <v>6.2239779351362285</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -7134,7 +7061,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>5</v>
       </c>
@@ -7146,14 +7073,14 @@
         <v>4.098781270044901E-2</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E40" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A40,Flows!$A$3:$A$21,0),MATCH($B40,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A40,Flows!$A$3:$A$21,0),MATCH($B40,Flows!$B$2:$E$2,0)))</f>
         <v>2.3117632330505993</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -7162,7 +7089,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>6</v>
       </c>
@@ -7174,14 +7101,14 @@
         <v>7.532592950265574E-3</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E41" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A41,Flows!$A$3:$A$21,0),MATCH($B41,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A41,Flows!$A$3:$A$21,0),MATCH($B41,Flows!$B$2:$E$2,0)))</f>
         <v>8.0022573451751509</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -7190,7 +7117,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>45</v>
       </c>
@@ -7202,14 +7129,14 @@
         <v>3.521811975832758E-2</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E42" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A42,Flows!$A$3:$A$21,0),MATCH($B42,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A42,Flows!$A$3:$A$21,0),MATCH($B42,Flows!$B$2:$E$2,0)))</f>
         <v>40.900426430895223</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -7218,7 +7145,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>8</v>
       </c>
@@ -7230,14 +7157,14 @@
         <v>7.5728155339805829E-3</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E43" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A43,Flows!$A$3:$A$21,0),MATCH($B43,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A43,Flows!$A$3:$A$21,0),MATCH($B43,Flows!$B$2:$E$2,0)))</f>
         <v>9.6027088142101817</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -7246,7 +7173,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>38</v>
       </c>
@@ -7258,14 +7185,14 @@
         <v>5.2380952380952387E-3</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E44" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A44,Flows!$A$3:$A$21,0),MATCH($B44,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A44,Flows!$A$3:$A$21,0),MATCH($B44,Flows!$B$2:$E$2,0)))</f>
         <v>38.410835256840727</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -7274,7 +7201,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>10</v>
       </c>
@@ -7286,14 +7213,14 @@
         <v>3.1333333333333331E-2</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E45" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A45,Flows!$A$3:$A$21,0),MATCH($B45,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A45,Flows!$A$3:$A$21,0),MATCH($B45,Flows!$B$2:$E$2,0)))</f>
         <v>54.948833770202704</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -7302,7 +7229,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>37</v>
       </c>
@@ -7314,14 +7241,14 @@
         <v>7.8058067586863388E-3</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E46" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A46,Flows!$A$3:$A$21,0),MATCH($B46,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A46,Flows!$A$3:$A$21,0),MATCH($B46,Flows!$B$2:$E$2,0)))</f>
         <v>18.778630570011025</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -7330,7 +7257,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>11</v>
       </c>
@@ -7342,14 +7269,14 @@
         <v>0.43852065321805955</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E47" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A47,Flows!$A$3:$A$21,0),MATCH($B47,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A47,Flows!$A$3:$A$21,0),MATCH($B47,Flows!$B$2:$E$2,0)))</f>
         <v>44.456985250973062</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -7358,7 +7285,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>13</v>
       </c>
@@ -7370,14 +7297,14 @@
         <v>0.17005204487583964</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E48" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A48,Flows!$A$3:$A$21,0),MATCH($B48,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A48,Flows!$A$3:$A$21,0),MATCH($B48,Flows!$B$2:$E$2,0)))</f>
         <v>17.782794100389225</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -7386,7 +7313,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>14</v>
       </c>
@@ -7398,14 +7325,14 @@
         <v>2.5616698292220113E-3</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E49" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A49,Flows!$A$3:$A$21,0),MATCH($B49,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A49,Flows!$A$3:$A$21,0),MATCH($B49,Flows!$B$2:$E$2,0)))</f>
         <v>2.934161026564222</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -7414,7 +7341,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>30</v>
       </c>
@@ -7426,14 +7353,14 @@
         <v>2.3649226512727495E-3</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E50" s="22">
         <f>IF(INDEX(Flows!$H$3:$K$21,MATCH($A50,Flows!$A$3:$A$21,0),MATCH($B50,Flows!$B$2:$E$2,0))=0,"",INDEX(Flows!$H$3:$K$21,MATCH($A50,Flows!$A$3:$A$21,0),MATCH($B50,Flows!$B$2:$E$2,0)))</f>
         <v>6.0994983764335551</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -7442,7 +7369,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>3</v>
       </c>
@@ -7454,14 +7381,14 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E51" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A51,Flows!$A$3:$A$21,0),MATCH($B51,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A51,Flows!$A$3:$A$21,0),MATCH($B51,Flows!$B$2:$G$2,0)))</f>
         <v>16.095147899941573</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -7470,7 +7397,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>5</v>
       </c>
@@ -7482,14 +7409,14 @@
         <v>3.6900000000000002E-2</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E52" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A52,Flows!$A$3:$A$21,0),MATCH($B52,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A52,Flows!$A$3:$A$21,0),MATCH($B52,Flows!$B$2:$G$2,0)))</f>
         <v>15.535450308907148</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
@@ -7498,7 +7425,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>6</v>
       </c>
@@ -7510,14 +7437,14 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E53" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A53,Flows!$A$3:$A$21,0),MATCH($B53,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A53,Flows!$A$3:$A$21,0),MATCH($B53,Flows!$B$2:$G$2,0)))</f>
         <v>14.199668958756412</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
@@ -7526,7 +7453,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>45</v>
       </c>
@@ -7538,14 +7465,14 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E54" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A54,Flows!$A$3:$A$21,0),MATCH($B54,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A54,Flows!$A$3:$A$21,0),MATCH($B54,Flows!$B$2:$G$2,0)))</f>
         <v>55.830044277922326</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -7554,7 +7481,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>8</v>
       </c>
@@ -7566,14 +7493,14 @@
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E55" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A55,Flows!$A$3:$A$21,0),MATCH($B55,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A55,Flows!$A$3:$A$21,0),MATCH($B55,Flows!$B$2:$G$2,0)))</f>
         <v>8.0475739499707863</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
@@ -7582,7 +7509,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>38</v>
       </c>
@@ -7594,14 +7521,14 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E56" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A56,Flows!$A$3:$A$21,0),MATCH($B56,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A56,Flows!$A$3:$A$21,0),MATCH($B56,Flows!$B$2:$G$2,0)))</f>
         <v>40.237869749853928</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
@@ -7610,7 +7537,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>10</v>
       </c>
@@ -7622,14 +7549,14 @@
         <v>0.04</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E57" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A57,Flows!$A$3:$A$21,0),MATCH($B57,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A57,Flows!$A$3:$A$21,0),MATCH($B57,Flows!$B$2:$G$2,0)))</f>
         <v>89.026286821551821</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
@@ -7638,7 +7565,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
         <v>37</v>
       </c>
@@ -7650,14 +7577,14 @@
         <v>6.7999999999999996E-3</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E58" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A58,Flows!$A$3:$A$21,0),MATCH($B58,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A58,Flows!$A$3:$A$21,0),MATCH($B58,Flows!$B$2:$G$2,0)))</f>
         <v>9.2635120764741856</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
@@ -7666,7 +7593,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>11</v>
       </c>
@@ -7678,14 +7605,14 @@
         <v>0.54</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E59" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A59,Flows!$A$3:$A$21,0),MATCH($B59,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A59,Flows!$A$3:$A$21,0),MATCH($B59,Flows!$B$2:$G$2,0)))</f>
         <v>77.960872640341989</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
@@ -7694,7 +7621,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
         <v>13</v>
       </c>
@@ -7706,14 +7633,14 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E60" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A60,Flows!$A$3:$A$21,0),MATCH($B60,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A60,Flows!$A$3:$A$21,0),MATCH($B60,Flows!$B$2:$G$2,0)))</f>
         <v>17.762827077650776</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
@@ -7722,7 +7649,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
         <v>14</v>
       </c>
@@ -7734,14 +7661,14 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E61" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A61,Flows!$A$3:$A$21,0),MATCH($B61,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A61,Flows!$A$3:$A$21,0),MATCH($B61,Flows!$B$2:$G$2,0)))</f>
         <v>4.5267603468585671</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
@@ -7750,7 +7677,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
         <v>30</v>
       </c>
@@ -7762,13 +7689,13 @@
         <v>2.5662489315418147E-2</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E62" s="22">
         <v>0</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -7777,26 +7704,26 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C63" s="21">
         <f>INDEX('Percent BW'!$N$4:$X$23,MATCH(VolumeFlow!A63,'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B63,'Percent BW'!$N$2:$X$2,0))</f>
         <v>2.7000000000000003E-2</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E63" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A63,Flows!$A$3:$A$21,0),MATCH($B63,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A63,Flows!$A$3:$A$21,0),MATCH($B63,Flows!$B$2:$G$2,0)))</f>
         <v>5.9813951248848829</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
@@ -7805,12 +7732,12 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C64" s="21">
         <f>INDEX('Percent BW'!$N$4:$X$23,MATCH(VolumeFlow!A64,'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B64,'Percent BW'!$N$2:$X$2,0))</f>
@@ -7822,7 +7749,7 @@
         <v>0.34858241588912464</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
@@ -7831,12 +7758,12 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C65" s="21">
         <f>INDEX('Percent BW'!$N$4:$X$23,MATCH(VolumeFlow!A65,'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B65,'Percent BW'!$N$2:$X$2,0))</f>
@@ -7848,7 +7775,7 @@
         <v>21.53302244958558</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
@@ -7857,26 +7784,26 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C66" s="30">
         <f>INDEX('Percent BW'!$N$4:$X$23,MATCH("Stomach",'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B66,'Percent BW'!$N$2:$X$2,0))+INDEX('Percent BW'!$N$4:$X$23,MATCH("Large Intestine",'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B66,'Percent BW'!$N$2:$X$2,0))+INDEX('Percent BW'!$N$4:$X$23,MATCH("Small Intestine",'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B66,'Percent BW'!$N$2:$X$2,0))</f>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E66" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A66,Flows!$A$3:$A$21,0),MATCH($B66,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A66,Flows!$A$3:$A$21,0),MATCH($B66,Flows!$B$2:$G$2,0)))</f>
         <v>37.38371953053052</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
@@ -7885,26 +7812,26 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C67" s="21">
         <f>INDEX('Percent BW'!$N$4:$X$23,MATCH(VolumeFlow!A67,'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B67,'Percent BW'!$N$2:$X$2,0))</f>
         <v>3.4000000000000002E-3</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E67" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A67,Flows!$A$3:$A$21,0),MATCH($B67,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A67,Flows!$A$3:$A$21,0),MATCH($B67,Flows!$B$2:$G$2,0)))</f>
         <v>17.944185374654648</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
@@ -7913,26 +7840,26 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C68" s="21">
         <f>INDEX('Percent BW'!$N$4:$X$23,MATCH(VolumeFlow!A68,'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B68,'Percent BW'!$N$2:$X$2,0))</f>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E68" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A68,Flows!$A$3:$A$21,0),MATCH($B68,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A68,Flows!$A$3:$A$21,0),MATCH($B68,Flows!$B$2:$G$2,0)))</f>
         <v>41.271626361705692</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
@@ -7941,26 +7868,26 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C69" s="21">
         <f>INDEX('Percent BW'!$N$4:$X$23,MATCH(VolumeFlow!A69,'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B69,'Percent BW'!$N$2:$X$2,0))</f>
         <v>2.7000000000000003E-2</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E69" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A69,Flows!$A$3:$A$21,0),MATCH($B69,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A69,Flows!$A$3:$A$21,0),MATCH($B69,Flows!$B$2:$G$2,0)))</f>
         <v>65.19720686124522</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
@@ -7969,26 +7896,26 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C70" s="21">
         <f>INDEX('Percent BW'!$N$4:$X$23,MATCH(VolumeFlow!A70,'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B70,'Percent BW'!$N$2:$X$2,0))</f>
         <v>7.234650166587339E-3</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E70" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A70,Flows!$A$3:$A$21,0),MATCH($B70,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A70,Flows!$A$3:$A$21,0),MATCH($B70,Flows!$B$2:$G$2,0)))</f>
         <v>11.286443996023408</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
@@ -7997,26 +7924,26 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C71" s="21">
         <f>INDEX('Percent BW'!$N$4:$X$23,MATCH(VolumeFlow!A71,'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B71,'Percent BW'!$N$2:$X$2,0))</f>
         <v>0.5</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E71" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A71,Flows!$A$3:$A$21,0),MATCH($B71,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A71,Flows!$A$3:$A$21,0),MATCH($B71,Flows!$B$2:$G$2,0)))</f>
         <v>26.916278061981973</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
@@ -8025,26 +7952,26 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C72" s="21">
         <f>INDEX('Percent BW'!$N$4:$X$23,MATCH(VolumeFlow!A72,'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B72,'Percent BW'!$N$2:$X$2,0))</f>
         <v>0.1</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E72" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A72,Flows!$A$3:$A$21,0),MATCH($B72,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A72,Flows!$A$3:$A$21,0),MATCH($B72,Flows!$B$2:$G$2,0)))</f>
         <v>16.149766837189183</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
@@ -8053,26 +7980,26 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C73" s="21">
         <f>INDEX('Percent BW'!$N$4:$X$23,MATCH(VolumeFlow!A73,'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B73,'Percent BW'!$N$2:$X$2,0))</f>
         <v>2.4667931688804553E-3</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E73" s="22">
         <f>IF(INDEX(Flows!$H$3:$M$21,MATCH($A73,Flows!$A$3:$A$21,0),MATCH($B73,Flows!$B$2:$G$2,0))=0,"",INDEX(Flows!$H$3:$M$21,MATCH($A73,Flows!$A$3:$A$21,0),MATCH($B73,Flows!$B$2:$G$2,0)))</f>
         <v>6.2804648811291273</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
@@ -8081,12 +8008,12 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C74" s="30">
         <f>INDEX('Percent BW'!$N$4:$X$23,MATCH("Total",'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B74,'Percent BW'!$N$2:$X$2,0))-INDEX('Percent BW'!$N$4:$X$23,MATCH("GI Contents",'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B74,'Percent BW'!$N$2:$X$2,0))-INDEX('Percent BW'!$N$4:$X$23,MATCH("Blood",'Percent BW'!$A$4:$A$23,0),MATCH(VolumeFlow!B74,'Percent BW'!$N$2:$X$2,0))-SUM(C63:C73)</f>
@@ -8098,7 +8025,7 @@
         <v>99.799527813744888</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
@@ -8107,7 +8034,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="20"/>
       <c r="B75" s="20"/>
       <c r="C75" s="21"/>
@@ -8115,30 +8042,30 @@
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="26"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="95" spans="10:10" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J95" s="7"/>
     </row>
   </sheetData>
@@ -8155,44 +8082,44 @@
       <selection activeCell="A41" sqref="A31:A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="22.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" customWidth="1"/>
-    <col min="9" max="9" width="17.54296875" customWidth="1"/>
-    <col min="10" max="10" width="23.1796875" customWidth="1"/>
-    <col min="11" max="11" width="20.81640625" customWidth="1"/>
+    <col min="1" max="3" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="31" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E1" s="31"/>
       <c r="F1" s="31" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G1" s="31"/>
       <c r="H1" s="31"/>
       <c r="I1" s="31" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="J1" s="31"/>
       <c r="K1" s="31"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>54</v>
@@ -8210,19 +8137,19 @@
         <v>50</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -8230,7 +8157,7 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D3">
         <v>0.86</v>
@@ -8260,7 +8187,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -8268,7 +8195,7 @@
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D4">
         <v>0.9</v>
@@ -8298,7 +8225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -8306,7 +8233,7 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D5">
         <v>0.995</v>
@@ -8336,7 +8263,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -8344,7 +8271,7 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D6">
         <v>0.9</v>
@@ -8374,7 +8301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -8382,7 +8309,7 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D7">
         <v>0.75</v>
@@ -8412,7 +8339,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -8420,7 +8347,7 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D8">
         <v>0.83499999999999996</v>
@@ -8450,7 +8377,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -8458,7 +8385,7 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D9">
         <v>0.77</v>
@@ -8488,7 +8415,7 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -8496,7 +8423,7 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D10">
         <v>0.8</v>
@@ -8526,7 +8453,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -8534,7 +8461,7 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D11">
         <v>0.85</v>
@@ -8564,7 +8491,7 @@
         <v>6.81</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -8572,7 +8499,7 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D12">
         <v>0.4</v>
@@ -8602,7 +8529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -8610,7 +8537,7 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D13">
         <v>0.745</v>
@@ -8640,7 +8567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -8648,7 +8575,7 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -8678,7 +8605,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -8686,7 +8613,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D15">
         <v>0.86</v>
@@ -8716,15 +8643,15 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D16">
         <v>0.72399999999999998</v>
@@ -8757,7 +8684,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -8765,7 +8692,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D17">
         <v>0.86</v>
@@ -8795,7 +8722,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -8803,7 +8730,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D18">
         <v>0.9</v>
@@ -8833,7 +8760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -8841,7 +8768,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D19">
         <v>0.83799999999999997</v>
@@ -8871,7 +8798,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -8879,7 +8806,7 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D20">
         <v>0.9</v>
@@ -8909,7 +8836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -8917,7 +8844,7 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D21">
         <v>0.86</v>
@@ -8947,7 +8874,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -8955,7 +8882,7 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D22">
         <v>0.85399999999999998</v>
@@ -8985,7 +8912,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -8993,7 +8920,7 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D23">
         <v>0.873</v>
@@ -9023,7 +8950,7 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -9031,7 +8958,7 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D24">
         <v>0.67500000000000004</v>
@@ -9061,7 +8988,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -9069,7 +8996,7 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D25">
         <v>0.876</v>
@@ -9099,7 +9026,7 @@
         <v>6.81</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -9107,7 +9034,7 @@
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D26">
         <v>0.68100000000000005</v>
@@ -9137,7 +9064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -9145,7 +9072,7 @@
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D27">
         <v>0.745</v>
@@ -9175,7 +9102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -9183,7 +9110,7 @@
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -9213,160 +9140,160 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>43</v>
       </c>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>42</v>
       </c>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>41</v>
       </c>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>40</v>
       </c>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="25" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="25" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="25" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="25" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="25" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="25" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="25" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="25" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="25" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="25" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="25" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="25" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -9388,9 +9315,9 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" s="32" t="s">
         <v>74</v>
       </c>
@@ -9414,7 +9341,7 @@
       <c r="P1" s="32"/>
       <c r="Q1" s="32"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -9428,7 +9355,7 @@
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G2" t="s">
         <v>104</v>
@@ -9446,7 +9373,7 @@
         <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M2" t="s">
         <v>104</v>
@@ -9464,16 +9391,16 @@
         <v>35</v>
       </c>
       <c r="R2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="S2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="T2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -9544,7 +9471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9620,7 +9547,7 @@
         <v>5.6864106313847307E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9701,7 +9628,7 @@
         <v>2.5114980288615898E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9781,7 +9708,7 @@
         <v>5.4886696505745992E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -9858,7 +9785,7 @@
         <v>5.0167385246276196E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -9933,7 +9860,7 @@
         <v>2.8432053156923653E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -10008,7 +9935,7 @@
         <v>0.14216026578461827</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -10083,7 +10010,7 @@
         <v>6.5749122925385942E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -10158,7 +10085,7 @@
         <v>0.19724736877615787</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -10237,7 +10164,7 @@
         <v>0.31452958804846792</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -10318,7 +10245,7 @@
         <v>3.2727958688602593E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -10393,7 +10320,7 @@
         <v>0.27543551495769786</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -10469,7 +10396,7 @@
         <v>6.2756011541943393E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -10550,7 +10477,7 @@
         <v>1.5068988173169536E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -10629,7 +10556,7 @@
         <v>1.5993029900769555E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -10710,7 +10637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -10766,7 +10693,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -10822,7 +10749,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -10874,27 +10801,27 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="40" spans="10:10" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J40" s="7"/>
     </row>
   </sheetData>
@@ -10912,16 +10839,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.26953125" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10929,10 +10856,10 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -10940,14 +10867,14 @@
         <v>0.91600000000000004</v>
       </c>
       <c r="C2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="J2" t="str">
         <f>IF(ISBLANK('Percent BW'!I4),"",'Percent BW'!I4/'Human Density'!$B2)</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -10956,14 +10883,14 @@
         <v>1.0245</v>
       </c>
       <c r="C3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="J3" t="str">
         <f>IF(ISBLANK('Percent BW'!I5),"",'Percent BW'!I5/'Human Density'!$B3)</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -10972,10 +10899,10 @@
         <v>1.9761971830985914</v>
       </c>
       <c r="C4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -10983,10 +10910,10 @@
         <v>1.99</v>
       </c>
       <c r="C5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -10994,10 +10921,10 @@
         <v>1.92</v>
       </c>
       <c r="C6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -11005,10 +10932,10 @@
         <v>1.028</v>
       </c>
       <c r="C7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -11016,10 +10943,10 @@
         <v>0.78300000000000003</v>
       </c>
       <c r="C8" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -11028,14 +10955,14 @@
         <v>1.0354999999999999</v>
       </c>
       <c r="C9" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="J9" t="str">
         <f>IF(ISBLANK('Percent BW'!I7),"",'Percent BW'!I10/'Human Density'!$B6)</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -11044,10 +10971,10 @@
         <v>1.0443364928909953</v>
       </c>
       <c r="C10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -11056,10 +10983,10 @@
         <v>1.05</v>
       </c>
       <c r="C11" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -11068,10 +10995,10 @@
         <v>1.044</v>
       </c>
       <c r="C12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -11079,10 +11006,10 @@
         <v>1.042</v>
       </c>
       <c r="C13" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -11090,10 +11017,10 @@
         <v>1.03</v>
       </c>
       <c r="C14" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -11101,10 +11028,10 @@
         <v>1.05</v>
       </c>
       <c r="C15" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -11112,10 +11039,10 @@
         <v>1.05</v>
       </c>
       <c r="C16" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -11124,10 +11051,10 @@
         <v>1.0505</v>
       </c>
       <c r="C17" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -11135,10 +11062,10 @@
         <v>1.0409999999999999</v>
       </c>
       <c r="C18" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -11147,10 +11074,10 @@
         <v>1.0449999999999999</v>
       </c>
       <c r="C19" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -11159,10 +11086,10 @@
         <v>1.117305</v>
       </c>
       <c r="C20" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -11170,10 +11097,10 @@
         <v>1.5</v>
       </c>
       <c r="C21" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -11182,10 +11109,10 @@
         <v>1.145</v>
       </c>
       <c r="C22" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -11193,10 +11120,10 @@
         <v>1.1160000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -11204,10 +11131,10 @@
         <v>0.97099999999999997</v>
       </c>
       <c r="C24" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -11215,10 +11142,10 @@
         <v>1.054</v>
       </c>
       <c r="C25" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -11227,10 +11154,10 @@
         <v>1.0510000000000002</v>
       </c>
       <c r="C26" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -11238,10 +11165,10 @@
         <v>1.125</v>
       </c>
       <c r="C27" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -11249,21 +11176,21 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="C28" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B29" s="2">
         <v>1.02</v>
       </c>
       <c r="C29" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -11271,7 +11198,7 @@
         <v>1.08</v>
       </c>
       <c r="C30" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -11288,12 +11215,12 @@
       <selection pane="topRight" activeCell="B26" sqref="B26:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="32" t="s">
         <v>58</v>
       </c>
@@ -11309,7 +11236,7 @@
       <c r="L1" s="29"/>
       <c r="M1" s="29"/>
       <c r="N1" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O1" s="32"/>
       <c r="P1" s="32"/>
@@ -11319,7 +11246,7 @@
       <c r="T1" s="32"/>
       <c r="U1" s="32"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>16</v>
@@ -11337,7 +11264,7 @@
         <v>104</v>
       </c>
       <c r="L2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="N2" t="s">
         <v>34</v>
@@ -11355,10 +11282,10 @@
         <v>104</v>
       </c>
       <c r="X2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -11435,7 +11362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11499,7 +11426,7 @@
         <v>2.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11563,7 +11490,7 @@
         <v>1.9521717911176185E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11624,7 +11551,7 @@
         <v>7.2310597961656342E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -11689,7 +11616,7 @@
         <v>1.9314340898116854E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -11753,7 +11680,7 @@
         <v>1.5333333333333334E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -11817,7 +11744,7 @@
         <v>1.5333333333333334E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -11881,7 +11808,7 @@
         <v>1.5333333333333334E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -11946,7 +11873,7 @@
         <v>3.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -12011,7 +11938,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -12076,7 +12003,7 @@
         <v>2.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -12141,7 +12068,7 @@
         <v>7.234650166587339E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -12206,7 +12133,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -12271,7 +12198,7 @@
         <v>1.3397129186602874E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -12334,7 +12261,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -12400,7 +12327,7 @@
         <v>2.4667931688804553E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -12465,7 +12392,7 @@
         <v>2.8544243577545187E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -12525,7 +12452,7 @@
         <v>7.0222222222222228E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -12574,7 +12501,7 @@
         <v>5.000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -12625,7 +12552,7 @@
         <v>1.3333333333333332E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -12670,9 +12597,9 @@
         <v>0.91181020202827034</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B24" t="s">
         <v>105</v>
@@ -12699,34 +12626,34 @@
         <v>105</v>
       </c>
       <c r="V24" t="s">
+        <v>349</v>
+      </c>
+      <c r="X24" t="s">
         <v>345</v>
       </c>
-      <c r="X24" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B27" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B28" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -12747,9 +12674,9 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>65</v>
       </c>
@@ -12760,7 +12687,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -12777,7 +12704,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -12799,7 +12726,7 @@
         <v>1.4499370629370629</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -12821,7 +12748,7 @@
         <v>1.9761971830985914</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -12843,7 +12770,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -12865,7 +12792,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -12884,7 +12811,7 @@
         <v>1.028</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -12906,7 +12833,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -12924,7 +12851,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -12955,9 +12882,9 @@
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="32" t="s">
         <v>88</v>
       </c>
@@ -12969,7 +12896,7 @@
       <c r="H1" s="32"/>
       <c r="I1" s="32"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>16</v>
@@ -12987,7 +12914,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -13019,7 +12946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13043,7 +12970,7 @@
         <v>9.6666666666666679E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13061,7 +12988,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13085,7 +13012,7 @@
         <v>6.3333333333333339E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -13109,7 +13036,7 @@
         <v>2.3333333333333331E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -13129,7 +13056,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -13159,7 +13086,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -13187,7 +13114,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -13213,7 +13140,7 @@
         <v>0.38666666666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -13241,7 +13168,7 @@
         <v>2.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -13263,7 +13190,7 @@
         <v>4.3333333333333335E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -13289,7 +13216,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -13307,7 +13234,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -13347,146 +13274,146 @@
       <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>297</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>298</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>299</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>300</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="C14" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="19" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B15" s="11">
         <v>15</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15">
@@ -13495,100 +13422,100 @@
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B16" s="11">
         <v>6</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J16" s="10"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B17" s="11">
         <v>10</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B18" s="11">
         <v>10</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K18">
         <f>(60+139)*10/1000</f>
@@ -13599,33 +13526,33 @@
         <v>0.52368421052631586</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B19" s="11">
         <v>12</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19">
@@ -13637,168 +13564,168 @@
         <v>0.42631578947368426</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B20" s="11">
         <v>10</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B21" s="11">
         <v>5</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B22" s="11">
         <v>12</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B23" s="11">
         <v>12</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J23" s="10"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B24" s="11">
         <v>20</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J24" s="10"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>18</v>
       </c>
@@ -13806,25 +13733,25 @@
         <v>10</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25">
@@ -13836,7 +13763,7 @@
         <v>0.77368421052631586</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>104</v>
       </c>
@@ -13844,25 +13771,25 @@
         <v>20</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26">
@@ -13874,188 +13801,188 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B27" s="11">
         <v>20</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J27" s="10"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B28" s="11">
         <v>10</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J28" s="10"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B29" s="11">
         <v>10</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J29" s="10"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B30" s="11">
         <v>6</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J30" s="10"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B31" s="11">
         <v>6</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J31" s="10"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B32" s="11">
         <v>12</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32">
@@ -14067,78 +13994,78 @@
         <v>0.6763157894736842</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B33" s="11">
         <v>12</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B34" s="11">
         <v>10</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B35" s="11">
         <v>10</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E35" s="11">
         <v>629</v>
@@ -14153,127 +14080,127 @@
         <v>22</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B36" s="11">
         <v>9</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B37" s="11">
         <v>10</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J37" s="10"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B38" s="11">
         <v>10</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J38" s="10"/>
     </row>
-    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B39" s="16">
         <v>10</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J39" s="17"/>
     </row>
